--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -3653,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>6</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>6</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>2</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>2</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>6</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>2</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>6</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
@@ -21620,7 +21620,7 @@
         <v>6</v>
       </c>
       <c r="I262" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>6</v>
       </c>
       <c r="I362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J362" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>6</v>
       </c>
       <c r="I384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J384" t="inlineStr">
         <is>
@@ -35309,7 +35309,7 @@
         <v>6</v>
       </c>
       <c r="I431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J431" t="inlineStr">
         <is>
@@ -36848,7 +36848,7 @@
         <v>6</v>
       </c>
       <c r="I450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J450" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>6</v>
       </c>
       <c r="I487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J487" t="inlineStr">
         <is>
@@ -40423,7 +40423,7 @@
         <v>2</v>
       </c>
       <c r="L494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M494" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -1050,7 +1050,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>6</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>6</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>6</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>6</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>2</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>2</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>6</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -5192,11 +5192,11 @@
         <v>2</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -5424,7 +5424,7 @@
         <v>6</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6234,22 +6234,22 @@
         <v>6</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K72" t="n">
         <v>2</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -7622,7 +7622,7 @@
         <v>2</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>6</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>6</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>6</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>6</v>
       </c>
       <c r="I120" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>2</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>6</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>6</v>
       </c>
       <c r="I159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>6</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -15236,11 +15236,11 @@
         <v>2</v>
       </c>
       <c r="L183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -15317,11 +15317,11 @@
         <v>2</v>
       </c>
       <c r="L184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
@@ -15468,7 +15468,7 @@
         <v>6</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>6</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>6</v>
       </c>
       <c r="I225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J225" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>6</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J234" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>6</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
@@ -19610,11 +19610,11 @@
         <v>2</v>
       </c>
       <c r="L237" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -21215,7 +21215,7 @@
         <v>6</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>2</v>
       </c>
       <c r="L262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M262" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>6</v>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J273" t="inlineStr">
         <is>
@@ -24709,7 +24709,7 @@
         <v>2</v>
       </c>
       <c r="L300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M300" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>6</v>
       </c>
       <c r="I308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J308" t="inlineStr">
         <is>
@@ -25357,7 +25357,7 @@
         <v>2</v>
       </c>
       <c r="L308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M308" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>2</v>
       </c>
       <c r="L320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M320" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>6</v>
       </c>
       <c r="I330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J330" t="inlineStr">
         <is>
@@ -27533,7 +27533,7 @@
         <v>6</v>
       </c>
       <c r="I335" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J335" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>6</v>
       </c>
       <c r="I344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J344" t="inlineStr">
         <is>
@@ -28505,7 +28505,7 @@
         <v>6</v>
       </c>
       <c r="I347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J347" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>2</v>
       </c>
       <c r="L350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M350" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>6</v>
       </c>
       <c r="I361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J361" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>2</v>
       </c>
       <c r="L361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M361" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>6</v>
       </c>
       <c r="I363" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J363" t="inlineStr">
         <is>
@@ -30773,22 +30773,22 @@
         <v>6</v>
       </c>
       <c r="I375" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K375" t="n">
         <v>2</v>
       </c>
       <c r="L375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N375" t="inlineStr">
@@ -31583,7 +31583,7 @@
         <v>6</v>
       </c>
       <c r="I385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J385" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>6</v>
       </c>
       <c r="I417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J417" t="inlineStr">
         <is>
@@ -34267,7 +34267,7 @@
         <v>2</v>
       </c>
       <c r="L418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M418" t="inlineStr">
         <is>
@@ -34510,7 +34510,7 @@
         <v>2</v>
       </c>
       <c r="L421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M421" t="inlineStr">
         <is>
@@ -36373,7 +36373,7 @@
         <v>2</v>
       </c>
       <c r="L444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M444" t="inlineStr">
         <is>
@@ -38803,11 +38803,11 @@
         <v>2</v>
       </c>
       <c r="L474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M474" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N474" t="inlineStr">
@@ -39764,7 +39764,7 @@
         <v>6</v>
       </c>
       <c r="I486" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J486" t="inlineStr">
         <is>
@@ -39775,7 +39775,7 @@
         <v>2</v>
       </c>
       <c r="L486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M486" t="inlineStr">
         <is>
@@ -39926,7 +39926,7 @@
         <v>6</v>
       </c>
       <c r="I488" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J488" t="inlineStr">
         <is>
@@ -40088,7 +40088,7 @@
         <v>6</v>
       </c>
       <c r="I490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J490" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>2</v>
       </c>
       <c r="L490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M490" t="inlineStr">
         <is>
@@ -40898,7 +40898,7 @@
         <v>6</v>
       </c>
       <c r="I500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J500" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -575,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>6</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4625,11 +4625,11 @@
         <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4776,7 +4776,7 @@
         <v>6</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>6</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5435,11 +5435,11 @@
         <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -7611,7 +7611,7 @@
         <v>6</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>6</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>2</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>6</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>2</v>
       </c>
       <c r="L155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>6</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>6</v>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>6</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>6</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>6</v>
       </c>
       <c r="I214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
@@ -21620,7 +21620,7 @@
         <v>6</v>
       </c>
       <c r="I262" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>6</v>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J276" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>2</v>
       </c>
       <c r="L285" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M285" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>2</v>
       </c>
       <c r="L294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M294" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>6</v>
       </c>
       <c r="I296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J296" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>6</v>
       </c>
       <c r="I333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>6</v>
       </c>
       <c r="I344" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J344" t="inlineStr">
         <is>
@@ -29650,11 +29650,11 @@
         <v>2</v>
       </c>
       <c r="L361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N361" t="inlineStr">
@@ -29720,7 +29720,7 @@
         <v>6</v>
       </c>
       <c r="I362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J362" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>6</v>
       </c>
       <c r="I369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J369" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>2</v>
       </c>
       <c r="L385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M385" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>6</v>
       </c>
       <c r="I386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J386" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>6</v>
       </c>
       <c r="I415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J415" t="inlineStr">
         <is>
@@ -34105,11 +34105,11 @@
         <v>2</v>
       </c>
       <c r="L416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N416" t="inlineStr">

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -1212,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -2184,22 +2184,22 @@
         <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -3005,7 +3005,7 @@
         <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>6</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>6</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>6</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>6</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>6</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>6</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>2</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>2</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>6</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>6</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>6</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>2</v>
       </c>
       <c r="L191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>6</v>
       </c>
       <c r="I193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>6</v>
       </c>
       <c r="I198" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J198" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>2</v>
       </c>
       <c r="L216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>6</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>6</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>2</v>
       </c>
       <c r="L273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M273" t="inlineStr">
         <is>
@@ -26318,7 +26318,7 @@
         <v>6</v>
       </c>
       <c r="I320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J320" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>6</v>
       </c>
       <c r="I329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J329" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>2</v>
       </c>
       <c r="L338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M338" t="inlineStr">
         <is>
@@ -32161,7 +32161,7 @@
         <v>2</v>
       </c>
       <c r="L392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M392" t="inlineStr">
         <is>
@@ -32566,7 +32566,7 @@
         <v>2</v>
       </c>
       <c r="L397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M397" t="inlineStr">
         <is>
@@ -34510,11 +34510,11 @@
         <v>2</v>
       </c>
       <c r="L421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M421" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N421" t="inlineStr">
@@ -38387,7 +38387,7 @@
         <v>6</v>
       </c>
       <c r="I469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J469" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>6</v>
       </c>
       <c r="I481" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J481" t="inlineStr">
         <is>
@@ -39370,7 +39370,7 @@
         <v>2</v>
       </c>
       <c r="L481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M481" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>6</v>
       </c>
       <c r="I487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J487" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>6</v>
       </c>
       <c r="I492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J492" t="inlineStr">
         <is>
@@ -40979,7 +40979,7 @@
         <v>6</v>
       </c>
       <c r="I501" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J501" t="inlineStr">
         <is>
@@ -41704,7 +41704,7 @@
         <v>6</v>
       </c>
       <c r="I510" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J510" t="inlineStr">
         <is>
@@ -41785,7 +41785,7 @@
         <v>6</v>
       </c>
       <c r="I511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J511" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -1212,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1223,11 +1223,11 @@
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -2427,7 +2427,7 @@
         <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>6</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>6</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>2</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>6</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>6</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -7611,11 +7611,11 @@
         <v>6</v>
       </c>
       <c r="I89" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K89" t="n">
@@ -8351,11 +8351,11 @@
         <v>2</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -9393,7 +9393,7 @@
         <v>6</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -9404,11 +9404,11 @@
         <v>2</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -9474,7 +9474,7 @@
         <v>6</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -10122,22 +10122,22 @@
         <v>6</v>
       </c>
       <c r="I120" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K120" t="n">
         <v>2</v>
       </c>
       <c r="L120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -10203,18 +10203,18 @@
         <v>6</v>
       </c>
       <c r="I121" t="n">
+        <v>4</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>2</v>
+      </c>
+      <c r="L121" t="n">
         <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K121" t="n">
-        <v>2</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>6</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>6</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
@@ -12320,11 +12320,11 @@
         <v>2</v>
       </c>
       <c r="L147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -12471,7 +12471,7 @@
         <v>6</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -12482,11 +12482,11 @@
         <v>2</v>
       </c>
       <c r="L149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -13362,7 +13362,7 @@
         <v>6</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>6</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>6</v>
       </c>
       <c r="I191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>6</v>
       </c>
       <c r="I198" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J198" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>2</v>
       </c>
       <c r="L200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>6</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>6</v>
       </c>
       <c r="I208" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>6</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
@@ -17585,7 +17585,7 @@
         <v>2</v>
       </c>
       <c r="L212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
@@ -18638,11 +18638,11 @@
         <v>2</v>
       </c>
       <c r="L225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
@@ -19356,7 +19356,7 @@
         <v>6</v>
       </c>
       <c r="I234" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J234" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>6</v>
       </c>
       <c r="I237" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>6</v>
       </c>
       <c r="I239" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>6</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J246" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>6</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="inlineStr">
         <is>
@@ -21620,7 +21620,7 @@
         <v>6</v>
       </c>
       <c r="I262" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
@@ -22198,11 +22198,11 @@
         <v>2</v>
       </c>
       <c r="L269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
@@ -22511,7 +22511,7 @@
         <v>6</v>
       </c>
       <c r="I273" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J273" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>2</v>
       </c>
       <c r="L276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>6</v>
       </c>
       <c r="I277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J277" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>6</v>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>6</v>
       </c>
       <c r="I310" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J310" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>6</v>
       </c>
       <c r="I316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J316" t="inlineStr">
         <is>
@@ -26734,7 +26734,7 @@
         <v>2</v>
       </c>
       <c r="L325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M325" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>6</v>
       </c>
       <c r="I330" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J330" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>6</v>
       </c>
       <c r="I340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J340" t="inlineStr">
         <is>
@@ -27949,7 +27949,7 @@
         <v>2</v>
       </c>
       <c r="L340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M340" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>6</v>
       </c>
       <c r="I342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J342" t="inlineStr">
         <is>
@@ -28111,7 +28111,7 @@
         <v>2</v>
       </c>
       <c r="L342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M342" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>6</v>
       </c>
       <c r="I344" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J344" t="inlineStr">
         <is>
@@ -28505,7 +28505,7 @@
         <v>6</v>
       </c>
       <c r="I347" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J347" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>2</v>
       </c>
       <c r="L349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M349" t="inlineStr">
         <is>
@@ -29153,7 +29153,7 @@
         <v>6</v>
       </c>
       <c r="I355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J355" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>2</v>
       </c>
       <c r="L358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M358" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>6</v>
       </c>
       <c r="I369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J369" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>2</v>
       </c>
       <c r="L383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M383" t="inlineStr">
         <is>
@@ -31745,7 +31745,7 @@
         <v>6</v>
       </c>
       <c r="I387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>6</v>
       </c>
       <c r="I392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J392" t="inlineStr">
         <is>
@@ -33214,7 +33214,7 @@
         <v>2</v>
       </c>
       <c r="L405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M405" t="inlineStr">
         <is>
@@ -33376,11 +33376,11 @@
         <v>2</v>
       </c>
       <c r="L407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N407" t="inlineStr">
@@ -34499,7 +34499,7 @@
         <v>6</v>
       </c>
       <c r="I421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J421" t="inlineStr">
         <is>
@@ -34742,7 +34742,7 @@
         <v>6</v>
       </c>
       <c r="I424" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J424" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>6</v>
       </c>
       <c r="I439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J439" t="inlineStr">
         <is>
@@ -36130,7 +36130,7 @@
         <v>2</v>
       </c>
       <c r="L441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M441" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>6</v>
       </c>
       <c r="I444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J444" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>6</v>
       </c>
       <c r="I448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J448" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
         <v>6</v>
       </c>
       <c r="I457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J457" t="inlineStr">
         <is>
@@ -37658,7 +37658,7 @@
         <v>6</v>
       </c>
       <c r="I460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J460" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>6</v>
       </c>
       <c r="I463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J463" t="inlineStr">
         <is>
@@ -39116,7 +39116,7 @@
         <v>6</v>
       </c>
       <c r="I478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J478" t="inlineStr">
         <is>
@@ -39359,11 +39359,11 @@
         <v>6</v>
       </c>
       <c r="I481" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K481" t="n">
@@ -39602,7 +39602,7 @@
         <v>6</v>
       </c>
       <c r="I484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J484" t="inlineStr">
         <is>
@@ -39613,7 +39613,7 @@
         <v>2</v>
       </c>
       <c r="L484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M484" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>6</v>
       </c>
       <c r="I492" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J492" t="inlineStr">
         <is>
@@ -40412,7 +40412,7 @@
         <v>6</v>
       </c>
       <c r="I494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J494" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>6</v>
       </c>
       <c r="I498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J498" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -2751,7 +2751,7 @@
         <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5759,11 +5759,11 @@
         <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -8583,7 +8583,7 @@
         <v>6</v>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>6</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>6</v>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>6</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
@@ -14831,11 +14831,11 @@
         <v>2</v>
       </c>
       <c r="L178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -17250,7 +17250,7 @@
         <v>6</v>
       </c>
       <c r="I208" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>6</v>
       </c>
       <c r="I276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J276" t="inlineStr">
         <is>
@@ -22835,18 +22835,18 @@
         <v>6</v>
       </c>
       <c r="I277" t="n">
+        <v>2</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>2</v>
+      </c>
+      <c r="L277" t="n">
         <v>1</v>
-      </c>
-      <c r="J277" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K277" t="n">
-        <v>2</v>
-      </c>
-      <c r="L277" t="n">
-        <v>0</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         <v>6</v>
       </c>
       <c r="I348" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J348" t="inlineStr">
         <is>
@@ -34742,7 +34742,7 @@
         <v>6</v>
       </c>
       <c r="I424" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J424" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
         <v>6</v>
       </c>
       <c r="I457" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J457" t="inlineStr">
         <is>
@@ -38387,7 +38387,7 @@
         <v>6</v>
       </c>
       <c r="I469" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J469" t="inlineStr">
         <is>
@@ -39602,7 +39602,7 @@
         <v>6</v>
       </c>
       <c r="I484" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J484" t="inlineStr">
         <is>
@@ -41704,7 +41704,7 @@
         <v>6</v>
       </c>
       <c r="I510" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J510" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -3156,7 +3156,7 @@
         <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>2</v>
       </c>
       <c r="L307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M307" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -1941,7 +1941,7 @@
         <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>6</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>6</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>2</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>6</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>6</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>6</v>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -8027,11 +8027,11 @@
         <v>2</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -9231,7 +9231,7 @@
         <v>6</v>
       </c>
       <c r="I109" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>6</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>6</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>2</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>6</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>6</v>
       </c>
       <c r="I147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
@@ -12390,18 +12390,18 @@
         <v>6</v>
       </c>
       <c r="I148" t="n">
+        <v>2</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>2</v>
+      </c>
+      <c r="L148" t="n">
         <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K148" t="n">
-        <v>2</v>
-      </c>
-      <c r="L148" t="n">
-        <v>0</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>6</v>
       </c>
       <c r="I154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>6</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>2</v>
       </c>
       <c r="L158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>6</v>
       </c>
       <c r="I159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>6</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -14982,18 +14982,18 @@
         <v>6</v>
       </c>
       <c r="I180" t="n">
+        <v>3</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>2</v>
+      </c>
+      <c r="L180" t="n">
         <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K180" t="n">
-        <v>2</v>
-      </c>
-      <c r="L180" t="n">
-        <v>0</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>6</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>6</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>2</v>
       </c>
       <c r="L208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>6</v>
       </c>
       <c r="I214" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>2</v>
       </c>
       <c r="L214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>6</v>
       </c>
       <c r="I237" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>6</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>2</v>
       </c>
       <c r="L248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
@@ -21620,11 +21620,11 @@
         <v>6</v>
       </c>
       <c r="I262" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K262" t="n">
@@ -22754,7 +22754,7 @@
         <v>6</v>
       </c>
       <c r="I276" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J276" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>6</v>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>6</v>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>2</v>
       </c>
       <c r="L289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M289" t="inlineStr">
         <is>
@@ -24061,11 +24061,11 @@
         <v>2</v>
       </c>
       <c r="L292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
@@ -26318,7 +26318,7 @@
         <v>6</v>
       </c>
       <c r="I320" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J320" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>6</v>
       </c>
       <c r="I328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>6</v>
       </c>
       <c r="I342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J342" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>6</v>
       </c>
       <c r="I349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J349" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>2</v>
       </c>
       <c r="L356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M356" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>2</v>
       </c>
       <c r="L364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M364" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>6</v>
       </c>
       <c r="I380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J380" t="inlineStr">
         <is>
@@ -31421,7 +31421,7 @@
         <v>6</v>
       </c>
       <c r="I383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J383" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>6</v>
       </c>
       <c r="I384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J384" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>6</v>
       </c>
       <c r="I386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J386" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>2</v>
       </c>
       <c r="L390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M390" t="inlineStr">
         <is>
@@ -32960,7 +32960,7 @@
         <v>6</v>
       </c>
       <c r="I402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J402" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>2</v>
       </c>
       <c r="L402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M402" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>6</v>
       </c>
       <c r="I403" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J403" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>6</v>
       </c>
       <c r="I416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J416" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>6</v>
       </c>
       <c r="I421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J421" t="inlineStr">
         <is>
@@ -35228,7 +35228,7 @@
         <v>6</v>
       </c>
       <c r="I430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J430" t="inlineStr">
         <is>
@@ -35876,7 +35876,7 @@
         <v>6</v>
       </c>
       <c r="I438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J438" t="inlineStr">
         <is>
@@ -38387,7 +38387,7 @@
         <v>6</v>
       </c>
       <c r="I469" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J469" t="inlineStr">
         <is>
@@ -38398,7 +38398,7 @@
         <v>2</v>
       </c>
       <c r="L469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M469" t="inlineStr">
         <is>
@@ -38954,7 +38954,7 @@
         <v>6</v>
       </c>
       <c r="I476" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J476" t="inlineStr">
         <is>
@@ -39602,7 +39602,7 @@
         <v>6</v>
       </c>
       <c r="I484" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J484" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -1941,7 +1941,7 @@
         <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -2762,11 +2762,11 @@
         <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -3167,7 +3167,7 @@
         <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -4290,22 +4290,22 @@
         <v>6</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K48" t="n">
         <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4452,7 +4452,7 @@
         <v>6</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4614,11 +4614,11 @@
         <v>6</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -4787,11 +4787,11 @@
         <v>2</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4938,7 +4938,7 @@
         <v>6</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>6</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>6</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>6</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>2</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5910,11 +5910,11 @@
         <v>6</v>
       </c>
       <c r="I68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K68" t="n">
@@ -6083,7 +6083,7 @@
         <v>2</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6639,18 +6639,18 @@
         <v>6</v>
       </c>
       <c r="I77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K77" t="n">
         <v>2</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>6</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>6</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>6</v>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -9323,11 +9323,11 @@
         <v>2</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -9555,7 +9555,7 @@
         <v>6</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>6</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>6</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>2</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>6</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>6</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>6</v>
       </c>
       <c r="I148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>6</v>
       </c>
       <c r="I149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>6</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>6</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>6</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>6</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
@@ -14264,11 +14264,11 @@
         <v>2</v>
       </c>
       <c r="L171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -14496,7 +14496,7 @@
         <v>6</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>6</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>2</v>
       </c>
       <c r="L187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
@@ -15711,18 +15711,18 @@
         <v>6</v>
       </c>
       <c r="I189" t="n">
+        <v>4</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>2</v>
+      </c>
+      <c r="L189" t="n">
         <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K189" t="n">
-        <v>2</v>
-      </c>
-      <c r="L189" t="n">
-        <v>0</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>6</v>
       </c>
       <c r="I191" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>2</v>
       </c>
       <c r="L196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>6</v>
       </c>
       <c r="I203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J203" t="inlineStr">
         <is>
@@ -17250,11 +17250,11 @@
         <v>6</v>
       </c>
       <c r="I208" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K208" t="n">
@@ -17817,7 +17817,7 @@
         <v>6</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>6</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>6</v>
       </c>
       <c r="I225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J225" t="inlineStr">
         <is>
@@ -18800,11 +18800,11 @@
         <v>2</v>
       </c>
       <c r="L227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
@@ -19356,7 +19356,7 @@
         <v>6</v>
       </c>
       <c r="I234" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J234" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>6</v>
       </c>
       <c r="I258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J258" t="inlineStr">
         <is>
@@ -21620,11 +21620,11 @@
         <v>6</v>
       </c>
       <c r="I262" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K262" t="n">
@@ -21782,7 +21782,7 @@
         <v>6</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J264" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>2</v>
       </c>
       <c r="L264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M264" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>6</v>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J270" t="inlineStr">
         <is>
@@ -22279,7 +22279,7 @@
         <v>2</v>
       </c>
       <c r="L270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M270" t="inlineStr">
         <is>
@@ -22349,7 +22349,7 @@
         <v>6</v>
       </c>
       <c r="I271" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J271" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>6</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J272" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>6</v>
       </c>
       <c r="I275" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J275" t="inlineStr">
         <is>
@@ -22684,11 +22684,11 @@
         <v>2</v>
       </c>
       <c r="L275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
@@ -22997,7 +22997,7 @@
         <v>6</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J279" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>2</v>
       </c>
       <c r="L279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M279" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>2</v>
       </c>
       <c r="L284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>6</v>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J286" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>2</v>
       </c>
       <c r="L286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M286" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>6</v>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J297" t="inlineStr">
         <is>
@@ -24466,11 +24466,11 @@
         <v>2</v>
       </c>
       <c r="L297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N297" t="inlineStr">
@@ -24536,7 +24536,7 @@
         <v>6</v>
       </c>
       <c r="I298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J298" t="inlineStr">
         <is>
@@ -24617,18 +24617,18 @@
         <v>6</v>
       </c>
       <c r="I299" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K299" t="n">
         <v>2</v>
       </c>
       <c r="L299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M299" t="inlineStr">
         <is>
@@ -26329,11 +26329,11 @@
         <v>2</v>
       </c>
       <c r="L320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N320" t="inlineStr">
@@ -26885,7 +26885,7 @@
         <v>6</v>
       </c>
       <c r="I327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J327" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>2</v>
       </c>
       <c r="L333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M333" t="inlineStr">
         <is>
@@ -28111,11 +28111,11 @@
         <v>2</v>
       </c>
       <c r="L342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N342" t="inlineStr">
@@ -28748,7 +28748,7 @@
         <v>6</v>
       </c>
       <c r="I350" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J350" t="inlineStr">
         <is>
@@ -28840,7 +28840,7 @@
         <v>2</v>
       </c>
       <c r="L351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M351" t="inlineStr">
         <is>
@@ -29072,7 +29072,7 @@
         <v>6</v>
       </c>
       <c r="I354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J354" t="inlineStr">
         <is>
@@ -29083,11 +29083,11 @@
         <v>2</v>
       </c>
       <c r="L354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N354" t="inlineStr">
@@ -29153,7 +29153,7 @@
         <v>6</v>
       </c>
       <c r="I355" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J355" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>2</v>
       </c>
       <c r="L355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M355" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>6</v>
       </c>
       <c r="I356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J356" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>6</v>
       </c>
       <c r="I358" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J358" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>2</v>
       </c>
       <c r="L369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M369" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>6</v>
       </c>
       <c r="I376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J376" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>2</v>
       </c>
       <c r="L376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M376" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>2</v>
       </c>
       <c r="L380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M380" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>6</v>
       </c>
       <c r="I382" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J382" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>2</v>
       </c>
       <c r="L382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M382" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>2</v>
       </c>
       <c r="L394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M394" t="inlineStr">
         <is>
@@ -32393,7 +32393,7 @@
         <v>6</v>
       </c>
       <c r="I395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J395" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>6</v>
       </c>
       <c r="I403" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J403" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>6</v>
       </c>
       <c r="I407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J407" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>6</v>
       </c>
       <c r="I410" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J410" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>2</v>
       </c>
       <c r="L424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M424" t="inlineStr">
         <is>
@@ -35066,7 +35066,7 @@
         <v>6</v>
       </c>
       <c r="I428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J428" t="inlineStr">
         <is>
@@ -35077,7 +35077,7 @@
         <v>2</v>
       </c>
       <c r="L428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M428" t="inlineStr">
         <is>
@@ -35471,7 +35471,7 @@
         <v>6</v>
       </c>
       <c r="I433" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J433" t="inlineStr">
         <is>
@@ -35482,7 +35482,7 @@
         <v>2</v>
       </c>
       <c r="L433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M433" t="inlineStr">
         <is>
@@ -35714,7 +35714,7 @@
         <v>6</v>
       </c>
       <c r="I436" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J436" t="inlineStr">
         <is>
@@ -36848,7 +36848,7 @@
         <v>6</v>
       </c>
       <c r="I450" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J450" t="inlineStr">
         <is>
@@ -38792,7 +38792,7 @@
         <v>6</v>
       </c>
       <c r="I474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J474" t="inlineStr">
         <is>
@@ -39127,11 +39127,11 @@
         <v>2</v>
       </c>
       <c r="L478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M478" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N478" t="inlineStr">
@@ -39370,11 +39370,11 @@
         <v>2</v>
       </c>
       <c r="L481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N481" t="inlineStr">
@@ -39602,11 +39602,11 @@
         <v>6</v>
       </c>
       <c r="I484" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K484" t="n">
@@ -39845,7 +39845,7 @@
         <v>6</v>
       </c>
       <c r="I487" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J487" t="inlineStr">
         <is>
@@ -39926,7 +39926,7 @@
         <v>6</v>
       </c>
       <c r="I488" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J488" t="inlineStr">
         <is>
@@ -40007,7 +40007,7 @@
         <v>6</v>
       </c>
       <c r="I489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J489" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>6</v>
       </c>
       <c r="I492" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J492" t="inlineStr">
         <is>
@@ -40817,7 +40817,7 @@
         <v>6</v>
       </c>
       <c r="I499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J499" t="inlineStr">
         <is>
@@ -40828,7 +40828,7 @@
         <v>2</v>
       </c>
       <c r="L499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M499" t="inlineStr">
         <is>
@@ -41303,7 +41303,7 @@
         <v>6</v>
       </c>
       <c r="I505" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J505" t="inlineStr">
         <is>
@@ -41314,11 +41314,11 @@
         <v>2</v>
       </c>
       <c r="L505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M505" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N505" t="inlineStr">
@@ -41785,7 +41785,7 @@
         <v>6</v>
       </c>
       <c r="I511" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J511" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -36848,7 +36848,7 @@
         <v>6</v>
       </c>
       <c r="I450" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J450" t="inlineStr">
         <is>
@@ -41715,11 +41715,11 @@
         <v>2</v>
       </c>
       <c r="L510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M510" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N510" t="inlineStr">

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -1050,7 +1050,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -3005,11 +3005,11 @@
         <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3237,7 +3237,7 @@
         <v>6</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>6</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>6</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>6</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>2</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>6</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>2</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>6</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>6</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>6</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5516,11 +5516,11 @@
         <v>2</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5586,7 +5586,7 @@
         <v>6</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>6</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -7125,18 +7125,18 @@
         <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K83" t="n">
         <v>2</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>6</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -7622,11 +7622,11 @@
         <v>2</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -8016,7 +8016,7 @@
         <v>6</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>6</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>2</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>6</v>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>6</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>6</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -9485,11 +9485,11 @@
         <v>2</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -9566,7 +9566,7 @@
         <v>2</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>6</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -9890,11 +9890,11 @@
         <v>2</v>
       </c>
       <c r="L117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -11024,7 +11024,7 @@
         <v>2</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>6</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>2</v>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>6</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>6</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>6</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>6</v>
       </c>
       <c r="I159" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>2</v>
       </c>
       <c r="L162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>6</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>2</v>
       </c>
       <c r="L170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
@@ -14507,11 +14507,11 @@
         <v>2</v>
       </c>
       <c r="L174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
@@ -14982,22 +14982,22 @@
         <v>6</v>
       </c>
       <c r="I180" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K180" t="n">
         <v>2</v>
       </c>
       <c r="L180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -15063,7 +15063,7 @@
         <v>6</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>6</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>6</v>
       </c>
       <c r="I189" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
@@ -15722,11 +15722,11 @@
         <v>2</v>
       </c>
       <c r="L189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -15884,11 +15884,11 @@
         <v>2</v>
       </c>
       <c r="L191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
@@ -16451,7 +16451,7 @@
         <v>2</v>
       </c>
       <c r="L198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>6</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>6</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J201" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>6</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>6</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
@@ -18962,11 +18962,11 @@
         <v>2</v>
       </c>
       <c r="L229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -19032,7 +19032,7 @@
         <v>6</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>6</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
@@ -19761,11 +19761,11 @@
         <v>6</v>
       </c>
       <c r="I239" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K239" t="n">
@@ -20324,7 +20324,7 @@
         <v>6</v>
       </c>
       <c r="I246" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J246" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>2</v>
       </c>
       <c r="L246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M246" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>6</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>6</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>2</v>
       </c>
       <c r="L250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M250" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>2</v>
       </c>
       <c r="L257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
@@ -21307,11 +21307,11 @@
         <v>2</v>
       </c>
       <c r="L258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -21539,7 +21539,7 @@
         <v>6</v>
       </c>
       <c r="I261" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J261" t="inlineStr">
         <is>
@@ -21620,22 +21620,22 @@
         <v>6</v>
       </c>
       <c r="I262" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K262" t="n">
         <v>2</v>
       </c>
       <c r="L262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
@@ -21701,7 +21701,7 @@
         <v>6</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J263" t="inlineStr">
         <is>
@@ -21712,11 +21712,11 @@
         <v>2</v>
       </c>
       <c r="L263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
@@ -21782,7 +21782,7 @@
         <v>6</v>
       </c>
       <c r="I264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J264" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>6</v>
       </c>
       <c r="I269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J269" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>6</v>
       </c>
       <c r="I270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J270" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>6</v>
       </c>
       <c r="I273" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J273" t="inlineStr">
         <is>
@@ -22765,11 +22765,11 @@
         <v>2</v>
       </c>
       <c r="L276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
@@ -24050,7 +24050,7 @@
         <v>6</v>
       </c>
       <c r="I292" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J292" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>2</v>
       </c>
       <c r="L293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M293" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>6</v>
       </c>
       <c r="I297" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J297" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>6</v>
       </c>
       <c r="I300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>6</v>
       </c>
       <c r="I302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302" t="inlineStr">
         <is>
@@ -24871,11 +24871,11 @@
         <v>2</v>
       </c>
       <c r="L302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N302" t="inlineStr">
@@ -25103,7 +25103,7 @@
         <v>6</v>
       </c>
       <c r="I305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J305" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>6</v>
       </c>
       <c r="I307" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J307" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>2</v>
       </c>
       <c r="L309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M309" t="inlineStr">
         <is>
@@ -25519,11 +25519,11 @@
         <v>2</v>
       </c>
       <c r="L310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N310" t="inlineStr">
@@ -25913,7 +25913,7 @@
         <v>6</v>
       </c>
       <c r="I315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J315" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>2</v>
       </c>
       <c r="L315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M315" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>6</v>
       </c>
       <c r="I317" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J317" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>6</v>
       </c>
       <c r="I328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J328" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>6</v>
       </c>
       <c r="I333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J333" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>6</v>
       </c>
       <c r="I338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J338" t="inlineStr">
         <is>
@@ -28181,7 +28181,7 @@
         <v>6</v>
       </c>
       <c r="I343" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J343" t="inlineStr">
         <is>
@@ -28192,11 +28192,11 @@
         <v>2</v>
       </c>
       <c r="L343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
@@ -28273,7 +28273,7 @@
         <v>2</v>
       </c>
       <c r="L344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M344" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>6</v>
       </c>
       <c r="I345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>2</v>
       </c>
       <c r="L345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M345" t="inlineStr">
         <is>
@@ -28505,7 +28505,7 @@
         <v>6</v>
       </c>
       <c r="I347" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J347" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>2</v>
       </c>
       <c r="L347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M347" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>6</v>
       </c>
       <c r="I356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J356" t="inlineStr">
         <is>
@@ -29558,7 +29558,7 @@
         <v>6</v>
       </c>
       <c r="I360" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J360" t="inlineStr">
         <is>
@@ -29569,11 +29569,11 @@
         <v>2</v>
       </c>
       <c r="L360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N360" t="inlineStr">
@@ -30125,7 +30125,7 @@
         <v>6</v>
       </c>
       <c r="I367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J367" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>6</v>
       </c>
       <c r="I369" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J369" t="inlineStr">
         <is>
@@ -30935,7 +30935,7 @@
         <v>6</v>
       </c>
       <c r="I377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J377" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>6</v>
       </c>
       <c r="I384" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J384" t="inlineStr">
         <is>
@@ -31745,7 +31745,7 @@
         <v>6</v>
       </c>
       <c r="I387" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J387" t="inlineStr">
         <is>
@@ -31999,11 +31999,11 @@
         <v>2</v>
       </c>
       <c r="L390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N390" t="inlineStr">
@@ -32069,7 +32069,7 @@
         <v>6</v>
       </c>
       <c r="I391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J391" t="inlineStr">
         <is>
@@ -32555,7 +32555,7 @@
         <v>6</v>
       </c>
       <c r="I397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J397" t="inlineStr">
         <is>
@@ -32566,11 +32566,11 @@
         <v>2</v>
       </c>
       <c r="L397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M397" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N397" t="inlineStr">
@@ -32809,7 +32809,7 @@
         <v>2</v>
       </c>
       <c r="L400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M400" t="inlineStr">
         <is>
@@ -32879,7 +32879,7 @@
         <v>6</v>
       </c>
       <c r="I401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J401" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>2</v>
       </c>
       <c r="L401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M401" t="inlineStr">
         <is>
@@ -33041,11 +33041,11 @@
         <v>6</v>
       </c>
       <c r="I403" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K403" t="n">
@@ -33203,7 +33203,7 @@
         <v>6</v>
       </c>
       <c r="I405" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J405" t="inlineStr">
         <is>
@@ -33214,11 +33214,11 @@
         <v>2</v>
       </c>
       <c r="L405" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N405" t="inlineStr">
@@ -33446,7 +33446,7 @@
         <v>6</v>
       </c>
       <c r="I408" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J408" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>2</v>
       </c>
       <c r="L410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M410" t="inlineStr">
         <is>
@@ -33770,7 +33770,7 @@
         <v>6</v>
       </c>
       <c r="I412" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J412" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>6</v>
       </c>
       <c r="I415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J415" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>6</v>
       </c>
       <c r="I418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J418" t="inlineStr">
         <is>
@@ -34742,7 +34742,7 @@
         <v>6</v>
       </c>
       <c r="I424" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J424" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>2</v>
       </c>
       <c r="L432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M432" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
         <v>6</v>
       </c>
       <c r="I457" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J457" t="inlineStr">
         <is>
@@ -38063,7 +38063,7 @@
         <v>6</v>
       </c>
       <c r="I465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J465" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>2</v>
       </c>
       <c r="L465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M465" t="inlineStr">
         <is>
@@ -38387,7 +38387,7 @@
         <v>6</v>
       </c>
       <c r="I469" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J469" t="inlineStr">
         <is>
@@ -38711,18 +38711,18 @@
         <v>6</v>
       </c>
       <c r="I473" t="n">
+        <v>2</v>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K473" t="n">
+        <v>2</v>
+      </c>
+      <c r="L473" t="n">
         <v>1</v>
-      </c>
-      <c r="J473" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K473" t="n">
-        <v>2</v>
-      </c>
-      <c r="L473" t="n">
-        <v>0</v>
       </c>
       <c r="M473" t="inlineStr">
         <is>
@@ -38954,7 +38954,7 @@
         <v>6</v>
       </c>
       <c r="I476" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J476" t="inlineStr">
         <is>
@@ -39602,11 +39602,11 @@
         <v>6</v>
       </c>
       <c r="I484" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K484" t="n">
@@ -39764,7 +39764,7 @@
         <v>6</v>
       </c>
       <c r="I486" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J486" t="inlineStr">
         <is>
@@ -39775,11 +39775,11 @@
         <v>2</v>
       </c>
       <c r="L486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M486" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N486" t="inlineStr">
@@ -40018,7 +40018,7 @@
         <v>2</v>
       </c>
       <c r="L489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M489" t="inlineStr">
         <is>
@@ -40180,11 +40180,11 @@
         <v>2</v>
       </c>
       <c r="L491" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M491" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N491" t="inlineStr">
@@ -40412,7 +40412,7 @@
         <v>6</v>
       </c>
       <c r="I494" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J494" t="inlineStr">
         <is>
@@ -40817,7 +40817,7 @@
         <v>6</v>
       </c>
       <c r="I499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J499" t="inlineStr">
         <is>
@@ -40828,11 +40828,11 @@
         <v>2</v>
       </c>
       <c r="L499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M499" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N499" t="inlineStr">
@@ -41222,7 +41222,7 @@
         <v>6</v>
       </c>
       <c r="I504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J504" t="inlineStr">
         <is>
@@ -41233,7 +41233,7 @@
         <v>2</v>
       </c>
       <c r="L504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M504" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -10932,7 +10932,7 @@
         <v>6</v>
       </c>
       <c r="I130" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -807,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -3653,11 +3653,11 @@
         <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3723,7 +3723,7 @@
         <v>6</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>6</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4787,11 +4787,11 @@
         <v>2</v>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -5111,11 +5111,11 @@
         <v>2</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -5343,7 +5343,7 @@
         <v>6</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5424,11 +5424,11 @@
         <v>6</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -5586,7 +5586,7 @@
         <v>6</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6731,11 +6731,11 @@
         <v>2</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6893,7 +6893,7 @@
         <v>2</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>2</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>6</v>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>6</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>6</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>6</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>6</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>6</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>6</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>6</v>
       </c>
       <c r="I109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>6</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -9647,11 +9647,11 @@
         <v>2</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -9717,7 +9717,7 @@
         <v>6</v>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>6</v>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>6</v>
       </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>6</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>6</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>6</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>6</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -12239,11 +12239,11 @@
         <v>2</v>
       </c>
       <c r="L146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -12309,22 +12309,22 @@
         <v>6</v>
       </c>
       <c r="I147" t="n">
+        <v>4</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>2</v>
+      </c>
+      <c r="L147" t="n">
         <v>3</v>
       </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K147" t="n">
-        <v>2</v>
-      </c>
-      <c r="L147" t="n">
-        <v>2</v>
-      </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -12390,7 +12390,7 @@
         <v>6</v>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -12401,11 +12401,11 @@
         <v>2</v>
       </c>
       <c r="L148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -12471,7 +12471,7 @@
         <v>6</v>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>6</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>6</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>2</v>
       </c>
       <c r="L151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>6</v>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
@@ -13211,11 +13211,11 @@
         <v>2</v>
       </c>
       <c r="L158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -13373,7 +13373,7 @@
         <v>2</v>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>6</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
@@ -13535,11 +13535,11 @@
         <v>2</v>
       </c>
       <c r="L162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -14010,7 +14010,7 @@
         <v>6</v>
       </c>
       <c r="I168" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>6</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>2</v>
       </c>
       <c r="L179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>6</v>
       </c>
       <c r="I181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>2</v>
       </c>
       <c r="L181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M181" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>6</v>
       </c>
       <c r="I183" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>6</v>
       </c>
       <c r="I186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>6</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>2</v>
       </c>
       <c r="L190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>6</v>
       </c>
       <c r="I191" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>6</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
@@ -16127,11 +16127,11 @@
         <v>2</v>
       </c>
       <c r="L194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
@@ -16197,7 +16197,7 @@
         <v>6</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -16208,11 +16208,11 @@
         <v>2</v>
       </c>
       <c r="L195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
@@ -16278,7 +16278,7 @@
         <v>6</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -16694,11 +16694,11 @@
         <v>2</v>
       </c>
       <c r="L201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
@@ -17574,7 +17574,7 @@
         <v>6</v>
       </c>
       <c r="I212" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>6</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>6</v>
       </c>
       <c r="I225" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J225" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>6</v>
       </c>
       <c r="I238" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>6</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>2</v>
       </c>
       <c r="L240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M240" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>6</v>
       </c>
       <c r="I242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J242" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>6</v>
       </c>
       <c r="I248" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J248" t="inlineStr">
         <is>
@@ -21215,7 +21215,7 @@
         <v>6</v>
       </c>
       <c r="I257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>6</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
@@ -21620,11 +21620,11 @@
         <v>6</v>
       </c>
       <c r="I262" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K262" t="n">
@@ -21793,11 +21793,11 @@
         <v>2</v>
       </c>
       <c r="L264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
@@ -22025,7 +22025,7 @@
         <v>6</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J267" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>6</v>
       </c>
       <c r="I269" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J269" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>6</v>
       </c>
       <c r="I270" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J270" t="inlineStr">
         <is>
@@ -22279,11 +22279,11 @@
         <v>2</v>
       </c>
       <c r="L270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
@@ -22430,7 +22430,7 @@
         <v>6</v>
       </c>
       <c r="I272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J272" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>6</v>
       </c>
       <c r="I273" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J273" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>6</v>
       </c>
       <c r="I276" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J276" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>6</v>
       </c>
       <c r="I278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J278" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>6</v>
       </c>
       <c r="I283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J283" t="inlineStr">
         <is>
@@ -23888,18 +23888,18 @@
         <v>6</v>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K290" t="n">
         <v>2</v>
       </c>
       <c r="L290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M290" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>6</v>
       </c>
       <c r="I292" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J292" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>6</v>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J294" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>6</v>
       </c>
       <c r="I296" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J296" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>2</v>
       </c>
       <c r="L296" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M296" t="inlineStr">
         <is>
@@ -24709,11 +24709,11 @@
         <v>2</v>
       </c>
       <c r="L300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N300" t="inlineStr">
@@ -24952,7 +24952,7 @@
         <v>2</v>
       </c>
       <c r="L303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M303" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>6</v>
       </c>
       <c r="I305" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J305" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>6</v>
       </c>
       <c r="I307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J307" t="inlineStr">
         <is>
@@ -25276,11 +25276,11 @@
         <v>2</v>
       </c>
       <c r="L307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N307" t="inlineStr">
@@ -25427,7 +25427,7 @@
         <v>6</v>
       </c>
       <c r="I309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J309" t="inlineStr">
         <is>
@@ -25438,11 +25438,11 @@
         <v>2</v>
       </c>
       <c r="L309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
@@ -25508,11 +25508,11 @@
         <v>6</v>
       </c>
       <c r="I310" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K310" t="n">
@@ -25913,7 +25913,7 @@
         <v>6</v>
       </c>
       <c r="I315" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J315" t="inlineStr">
         <is>
@@ -26318,11 +26318,11 @@
         <v>6</v>
       </c>
       <c r="I320" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K320" t="n">
@@ -26399,7 +26399,7 @@
         <v>6</v>
       </c>
       <c r="I321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J321" t="inlineStr">
         <is>
@@ -26410,7 +26410,7 @@
         <v>2</v>
       </c>
       <c r="L321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M321" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>6</v>
       </c>
       <c r="I327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J327" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>6</v>
       </c>
       <c r="I329" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J329" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>6</v>
       </c>
       <c r="I334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>6</v>
       </c>
       <c r="I337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J337" t="inlineStr">
         <is>
@@ -27706,7 +27706,7 @@
         <v>2</v>
       </c>
       <c r="L337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M337" t="inlineStr">
         <is>
@@ -27787,11 +27787,11 @@
         <v>2</v>
       </c>
       <c r="L338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N338" t="inlineStr">
@@ -28019,22 +28019,22 @@
         <v>6</v>
       </c>
       <c r="I341" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K341" t="n">
         <v>2</v>
       </c>
       <c r="L341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N341" t="inlineStr">
@@ -28100,7 +28100,7 @@
         <v>6</v>
       </c>
       <c r="I342" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J342" t="inlineStr">
         <is>
@@ -28181,7 +28181,7 @@
         <v>6</v>
       </c>
       <c r="I343" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J343" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>6</v>
       </c>
       <c r="I344" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J344" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>6</v>
       </c>
       <c r="I349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J349" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>6</v>
       </c>
       <c r="I351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J351" t="inlineStr">
         <is>
@@ -29072,7 +29072,7 @@
         <v>6</v>
       </c>
       <c r="I354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J354" t="inlineStr">
         <is>
@@ -29153,7 +29153,7 @@
         <v>6</v>
       </c>
       <c r="I355" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J355" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>6</v>
       </c>
       <c r="I361" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J361" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>6</v>
       </c>
       <c r="I376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J376" t="inlineStr">
         <is>
@@ -31016,7 +31016,7 @@
         <v>6</v>
       </c>
       <c r="I378" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J378" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>2</v>
       </c>
       <c r="L378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M378" t="inlineStr">
         <is>
@@ -31189,11 +31189,11 @@
         <v>2</v>
       </c>
       <c r="L380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N380" t="inlineStr">
@@ -31340,7 +31340,7 @@
         <v>6</v>
       </c>
       <c r="I382" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J382" t="inlineStr">
         <is>
@@ -31513,7 +31513,7 @@
         <v>2</v>
       </c>
       <c r="L384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M384" t="inlineStr">
         <is>
@@ -31664,11 +31664,11 @@
         <v>6</v>
       </c>
       <c r="I386" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K386" t="n">
@@ -31745,7 +31745,7 @@
         <v>6</v>
       </c>
       <c r="I387" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J387" t="inlineStr">
         <is>
@@ -31756,7 +31756,7 @@
         <v>2</v>
       </c>
       <c r="L387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M387" t="inlineStr">
         <is>
@@ -32069,7 +32069,7 @@
         <v>6</v>
       </c>
       <c r="I391" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J391" t="inlineStr">
         <is>
@@ -32636,7 +32636,7 @@
         <v>6</v>
       </c>
       <c r="I398" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J398" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>2</v>
       </c>
       <c r="L398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M398" t="inlineStr">
         <is>
@@ -33041,18 +33041,18 @@
         <v>6</v>
       </c>
       <c r="I403" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K403" t="n">
         <v>2</v>
       </c>
       <c r="L403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M403" t="inlineStr">
         <is>
@@ -33122,7 +33122,7 @@
         <v>6</v>
       </c>
       <c r="I404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J404" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>6</v>
       </c>
       <c r="I407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J407" t="inlineStr">
         <is>
@@ -33770,7 +33770,7 @@
         <v>6</v>
       </c>
       <c r="I412" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J412" t="inlineStr">
         <is>
@@ -34024,11 +34024,11 @@
         <v>2</v>
       </c>
       <c r="L415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N415" t="inlineStr">
@@ -34094,7 +34094,7 @@
         <v>6</v>
       </c>
       <c r="I416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J416" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>6</v>
       </c>
       <c r="I418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J418" t="inlineStr">
         <is>
@@ -34337,7 +34337,7 @@
         <v>6</v>
       </c>
       <c r="I419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J419" t="inlineStr">
         <is>
@@ -34348,7 +34348,7 @@
         <v>2</v>
       </c>
       <c r="L419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M419" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>6</v>
       </c>
       <c r="I421" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J421" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>6</v>
       </c>
       <c r="I425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J425" t="inlineStr">
         <is>
@@ -34834,7 +34834,7 @@
         <v>2</v>
       </c>
       <c r="L425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M425" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>2</v>
       </c>
       <c r="L426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M426" t="inlineStr">
         <is>
@@ -34996,7 +34996,7 @@
         <v>2</v>
       </c>
       <c r="L427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M427" t="inlineStr">
         <is>
@@ -35066,7 +35066,7 @@
         <v>6</v>
       </c>
       <c r="I428" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J428" t="inlineStr">
         <is>
@@ -35077,11 +35077,11 @@
         <v>2</v>
       </c>
       <c r="L428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M428" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N428" t="inlineStr">
@@ -35320,7 +35320,7 @@
         <v>2</v>
       </c>
       <c r="L431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M431" t="inlineStr">
         <is>
@@ -35714,7 +35714,7 @@
         <v>6</v>
       </c>
       <c r="I436" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J436" t="inlineStr">
         <is>
@@ -35876,7 +35876,7 @@
         <v>6</v>
       </c>
       <c r="I438" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J438" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>6</v>
       </c>
       <c r="I439" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J439" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>6</v>
       </c>
       <c r="I442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J442" t="inlineStr">
         <is>
@@ -36211,7 +36211,7 @@
         <v>2</v>
       </c>
       <c r="L442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M442" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>6</v>
       </c>
       <c r="I444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J444" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>6</v>
       </c>
       <c r="I448" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J448" t="inlineStr">
         <is>
@@ -36697,7 +36697,7 @@
         <v>2</v>
       </c>
       <c r="L448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M448" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         <v>2</v>
       </c>
       <c r="L457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M457" t="inlineStr">
         <is>
@@ -39116,7 +39116,7 @@
         <v>6</v>
       </c>
       <c r="I478" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J478" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>6</v>
       </c>
       <c r="I480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J480" t="inlineStr">
         <is>
@@ -39289,7 +39289,7 @@
         <v>2</v>
       </c>
       <c r="L480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M480" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>6</v>
       </c>
       <c r="I487" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J487" t="inlineStr">
         <is>
@@ -39856,11 +39856,11 @@
         <v>2</v>
       </c>
       <c r="L487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M487" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N487" t="inlineStr">
@@ -39926,11 +39926,11 @@
         <v>6</v>
       </c>
       <c r="I488" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K488" t="n">
@@ -40261,11 +40261,11 @@
         <v>2</v>
       </c>
       <c r="L492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M492" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N492" t="inlineStr">
@@ -40342,11 +40342,11 @@
         <v>2</v>
       </c>
       <c r="L493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M493" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N493" t="inlineStr">
@@ -40412,7 +40412,7 @@
         <v>6</v>
       </c>
       <c r="I494" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J494" t="inlineStr">
         <is>
@@ -40493,7 +40493,7 @@
         <v>6</v>
       </c>
       <c r="I495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J495" t="inlineStr">
         <is>
@@ -40898,7 +40898,7 @@
         <v>6</v>
       </c>
       <c r="I500" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J500" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>2</v>
       </c>
       <c r="L501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M501" t="inlineStr">
         <is>
@@ -41060,7 +41060,7 @@
         <v>6</v>
       </c>
       <c r="I502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J502" t="inlineStr">
         <is>
@@ -41303,7 +41303,7 @@
         <v>6</v>
       </c>
       <c r="I505" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J505" t="inlineStr">
         <is>
@@ -41785,7 +41785,7 @@
         <v>6</v>
       </c>
       <c r="I511" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J511" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -2508,7 +2508,7 @@
         <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -36848,7 +36848,7 @@
         <v>6</v>
       </c>
       <c r="I450" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J450" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>6</v>
       </c>
       <c r="I463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J463" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -1050,22 +1050,22 @@
         <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1212,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1304,11 +1304,11 @@
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1536,11 +1536,11 @@
         <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -1941,22 +1941,22 @@
         <v>6</v>
       </c>
       <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
         <v>3</v>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2103,7 +2103,7 @@
         <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2589,22 +2589,22 @@
         <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K27" t="n">
         <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -3237,7 +3237,7 @@
         <v>6</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3642,11 +3642,11 @@
         <v>6</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K40" t="n">
@@ -3966,22 +3966,22 @@
         <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K44" t="n">
         <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -4290,11 +4290,11 @@
         <v>6</v>
       </c>
       <c r="I48" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -4452,7 +4452,7 @@
         <v>6</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>6</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>2</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4949,11 +4949,11 @@
         <v>2</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -5100,11 +5100,11 @@
         <v>6</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K58" t="n">
@@ -5181,7 +5181,7 @@
         <v>6</v>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
         <v>6</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K61" t="n">
@@ -5424,11 +5424,11 @@
         <v>6</v>
       </c>
       <c r="I62" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -5505,7 +5505,7 @@
         <v>6</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5516,11 +5516,11 @@
         <v>2</v>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5667,7 +5667,7 @@
         <v>6</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>6</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -6072,11 +6072,11 @@
         <v>6</v>
       </c>
       <c r="I70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K70" t="n">
@@ -6488,7 +6488,7 @@
         <v>2</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>6</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6893,11 +6893,11 @@
         <v>2</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6963,7 +6963,7 @@
         <v>6</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>6</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -7055,11 +7055,11 @@
         <v>2</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -7287,7 +7287,7 @@
         <v>6</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -7298,11 +7298,11 @@
         <v>2</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -7460,7 +7460,7 @@
         <v>2</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -7530,18 +7530,18 @@
         <v>6</v>
       </c>
       <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>2</v>
+      </c>
+      <c r="L88" t="n">
         <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K88" t="n">
-        <v>2</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -7611,11 +7611,11 @@
         <v>6</v>
       </c>
       <c r="I89" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K89" t="n">
@@ -7692,7 +7692,7 @@
         <v>6</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>6</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>2</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8097,11 +8097,11 @@
         <v>6</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K95" t="n">
@@ -8340,11 +8340,11 @@
         <v>6</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K98" t="n">
@@ -8421,7 +8421,7 @@
         <v>6</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>2</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -8583,22 +8583,22 @@
         <v>6</v>
       </c>
       <c r="I101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K101" t="n">
         <v>2</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -8664,11 +8664,11 @@
         <v>6</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K102" t="n">
@@ -8826,18 +8826,18 @@
         <v>6</v>
       </c>
       <c r="I104" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K104" t="n">
         <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>6</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>6</v>
       </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -9242,11 +9242,11 @@
         <v>2</v>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -9636,7 +9636,7 @@
         <v>6</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -9717,18 +9717,18 @@
         <v>6</v>
       </c>
       <c r="I115" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K115" t="n">
         <v>2</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>6</v>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
         <v>6</v>
       </c>
       <c r="I117" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K117" t="n">
@@ -10214,11 +10214,11 @@
         <v>2</v>
       </c>
       <c r="L121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -10932,11 +10932,11 @@
         <v>6</v>
       </c>
       <c r="I130" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K130" t="n">
@@ -11013,7 +11013,7 @@
         <v>6</v>
       </c>
       <c r="I131" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -11256,11 +11256,11 @@
         <v>6</v>
       </c>
       <c r="I134" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K134" t="n">
@@ -11418,22 +11418,22 @@
         <v>6</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K136" t="n">
         <v>2</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -11672,7 +11672,7 @@
         <v>2</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>6</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>2</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>6</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>6</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -12239,11 +12239,11 @@
         <v>2</v>
       </c>
       <c r="L146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -12320,7 +12320,7 @@
         <v>2</v>
       </c>
       <c r="L147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
@@ -12390,11 +12390,11 @@
         <v>6</v>
       </c>
       <c r="I148" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K148" t="n">
@@ -12471,7 +12471,7 @@
         <v>6</v>
       </c>
       <c r="I149" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>6</v>
       </c>
       <c r="I150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>6</v>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>2</v>
       </c>
       <c r="L152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>2</v>
       </c>
       <c r="L153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
@@ -12876,22 +12876,22 @@
         <v>6</v>
       </c>
       <c r="I154" t="n">
+        <v>6</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>2</v>
+      </c>
+      <c r="L154" t="n">
         <v>3</v>
       </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K154" t="n">
-        <v>2</v>
-      </c>
-      <c r="L154" t="n">
-        <v>0</v>
-      </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -12957,7 +12957,7 @@
         <v>6</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>6</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -13281,22 +13281,22 @@
         <v>6</v>
       </c>
       <c r="I159" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K159" t="n">
         <v>2</v>
       </c>
       <c r="L159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -13443,7 +13443,7 @@
         <v>6</v>
       </c>
       <c r="I161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>6</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>2</v>
       </c>
       <c r="L168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>6</v>
       </c>
       <c r="I171" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>6</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>2</v>
       </c>
       <c r="L172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>6</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>2</v>
       </c>
       <c r="L174" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>6</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
@@ -14912,11 +14912,11 @@
         <v>2</v>
       </c>
       <c r="L179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -15063,7 +15063,7 @@
         <v>6</v>
       </c>
       <c r="I181" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -15074,11 +15074,11 @@
         <v>2</v>
       </c>
       <c r="L181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -15630,7 +15630,7 @@
         <v>6</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
         <v>6</v>
       </c>
       <c r="I189" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K189" t="n">
@@ -15792,7 +15792,7 @@
         <v>6</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>6</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
@@ -16451,11 +16451,11 @@
         <v>2</v>
       </c>
       <c r="L198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
@@ -16602,7 +16602,7 @@
         <v>6</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
@@ -16683,11 +16683,11 @@
         <v>6</v>
       </c>
       <c r="I201" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K201" t="n">
@@ -16764,7 +16764,7 @@
         <v>6</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
@@ -16775,11 +16775,11 @@
         <v>2</v>
       </c>
       <c r="L202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
@@ -17169,7 +17169,7 @@
         <v>6</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J207" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>6</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
@@ -17574,11 +17574,11 @@
         <v>6</v>
       </c>
       <c r="I212" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K212" t="n">
@@ -17817,11 +17817,11 @@
         <v>6</v>
       </c>
       <c r="I215" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K215" t="n">
@@ -17898,7 +17898,7 @@
         <v>6</v>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>6</v>
       </c>
       <c r="I222" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>2</v>
       </c>
       <c r="L222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>6</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>6</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J228" t="inlineStr">
         <is>
@@ -19032,18 +19032,18 @@
         <v>6</v>
       </c>
       <c r="I230" t="n">
+        <v>2</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>2</v>
+      </c>
+      <c r="L230" t="n">
         <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K230" t="n">
-        <v>2</v>
-      </c>
-      <c r="L230" t="n">
-        <v>0</v>
       </c>
       <c r="M230" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>6</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>2</v>
       </c>
       <c r="L237" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M237" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>6</v>
       </c>
       <c r="I246" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J246" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>6</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J259" t="inlineStr">
         <is>
@@ -21388,11 +21388,11 @@
         <v>2</v>
       </c>
       <c r="L259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
@@ -21782,7 +21782,7 @@
         <v>6</v>
       </c>
       <c r="I264" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J264" t="inlineStr">
         <is>
@@ -21793,11 +21793,11 @@
         <v>2</v>
       </c>
       <c r="L264" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
@@ -22349,22 +22349,22 @@
         <v>6</v>
       </c>
       <c r="I271" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K271" t="n">
         <v>2</v>
       </c>
       <c r="L271" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
@@ -22511,22 +22511,22 @@
         <v>6</v>
       </c>
       <c r="I273" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K273" t="n">
         <v>2</v>
       </c>
       <c r="L273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
@@ -22754,11 +22754,11 @@
         <v>6</v>
       </c>
       <c r="I276" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K276" t="n">
@@ -22997,7 +22997,7 @@
         <v>6</v>
       </c>
       <c r="I279" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J279" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>6</v>
       </c>
       <c r="I282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>2</v>
       </c>
       <c r="L282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M282" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>6</v>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J284" t="inlineStr">
         <is>
@@ -23483,11 +23483,11 @@
         <v>6</v>
       </c>
       <c r="I285" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K285" t="n">
@@ -23969,7 +23969,7 @@
         <v>6</v>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J291" t="inlineStr">
         <is>
@@ -23980,11 +23980,11 @@
         <v>2</v>
       </c>
       <c r="L291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N291" t="inlineStr">
@@ -24698,7 +24698,7 @@
         <v>6</v>
       </c>
       <c r="I300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J300" t="inlineStr">
         <is>
@@ -24709,11 +24709,11 @@
         <v>2</v>
       </c>
       <c r="L300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N300" t="inlineStr">
@@ -24860,7 +24860,7 @@
         <v>6</v>
       </c>
       <c r="I302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J302" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>6</v>
       </c>
       <c r="I303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>6</v>
       </c>
       <c r="I316" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J316" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>6</v>
       </c>
       <c r="I317" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J317" t="inlineStr">
         <is>
@@ -26318,11 +26318,11 @@
         <v>6</v>
       </c>
       <c r="I320" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K320" t="n">
@@ -26399,7 +26399,7 @@
         <v>6</v>
       </c>
       <c r="I321" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J321" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>6</v>
       </c>
       <c r="I327" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J327" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>6</v>
       </c>
       <c r="I328" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J328" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>2</v>
       </c>
       <c r="L328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M328" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>6</v>
       </c>
       <c r="I329" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J329" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>2</v>
       </c>
       <c r="L329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M329" t="inlineStr">
         <is>
@@ -27128,11 +27128,11 @@
         <v>6</v>
       </c>
       <c r="I330" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K330" t="n">
@@ -27371,7 +27371,7 @@
         <v>6</v>
       </c>
       <c r="I333" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J333" t="inlineStr">
         <is>
@@ -27382,11 +27382,11 @@
         <v>2</v>
       </c>
       <c r="L333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N333" t="inlineStr">
@@ -27776,7 +27776,7 @@
         <v>6</v>
       </c>
       <c r="I338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J338" t="inlineStr">
         <is>
@@ -28019,11 +28019,11 @@
         <v>6</v>
       </c>
       <c r="I341" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K341" t="n">
@@ -28262,11 +28262,11 @@
         <v>6</v>
       </c>
       <c r="I344" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K344" t="n">
@@ -28343,7 +28343,7 @@
         <v>6</v>
       </c>
       <c r="I345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J345" t="inlineStr">
         <is>
@@ -28505,11 +28505,11 @@
         <v>6</v>
       </c>
       <c r="I347" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K347" t="n">
@@ -28586,18 +28586,18 @@
         <v>6</v>
       </c>
       <c r="I348" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K348" t="n">
         <v>2</v>
       </c>
       <c r="L348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M348" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>6</v>
       </c>
       <c r="I349" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J349" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>6</v>
       </c>
       <c r="I351" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J351" t="inlineStr">
         <is>
@@ -29072,7 +29072,7 @@
         <v>6</v>
       </c>
       <c r="I354" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J354" t="inlineStr">
         <is>
@@ -29245,11 +29245,11 @@
         <v>2</v>
       </c>
       <c r="L356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N356" t="inlineStr">
@@ -29396,22 +29396,22 @@
         <v>6</v>
       </c>
       <c r="I358" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K358" t="n">
         <v>2</v>
       </c>
       <c r="L358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N358" t="inlineStr">
@@ -29558,11 +29558,11 @@
         <v>6</v>
       </c>
       <c r="I360" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K360" t="n">
@@ -29731,7 +29731,7 @@
         <v>2</v>
       </c>
       <c r="L362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M362" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>6</v>
       </c>
       <c r="I364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J364" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>6</v>
       </c>
       <c r="I365" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J365" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>6</v>
       </c>
       <c r="I367" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J367" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>6</v>
       </c>
       <c r="I369" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J369" t="inlineStr">
         <is>
@@ -30449,7 +30449,7 @@
         <v>6</v>
       </c>
       <c r="I371" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J371" t="inlineStr">
         <is>
@@ -31016,7 +31016,7 @@
         <v>6</v>
       </c>
       <c r="I378" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J378" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>6</v>
       </c>
       <c r="I380" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J380" t="inlineStr">
         <is>
@@ -31270,7 +31270,7 @@
         <v>2</v>
       </c>
       <c r="L381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M381" t="inlineStr">
         <is>
@@ -31594,11 +31594,11 @@
         <v>2</v>
       </c>
       <c r="L385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N385" t="inlineStr">
@@ -31675,7 +31675,7 @@
         <v>2</v>
       </c>
       <c r="L386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M386" t="inlineStr">
         <is>
@@ -31745,7 +31745,7 @@
         <v>6</v>
       </c>
       <c r="I387" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J387" t="inlineStr">
         <is>
@@ -31756,11 +31756,11 @@
         <v>2</v>
       </c>
       <c r="L387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N387" t="inlineStr">
@@ -31988,7 +31988,7 @@
         <v>6</v>
       </c>
       <c r="I390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J390" t="inlineStr">
         <is>
@@ -32069,7 +32069,7 @@
         <v>6</v>
       </c>
       <c r="I391" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J391" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>6</v>
       </c>
       <c r="I392" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J392" t="inlineStr">
         <is>
@@ -32323,11 +32323,11 @@
         <v>2</v>
       </c>
       <c r="L394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N394" t="inlineStr">
@@ -32879,7 +32879,7 @@
         <v>6</v>
       </c>
       <c r="I401" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J401" t="inlineStr">
         <is>
@@ -32971,11 +32971,11 @@
         <v>2</v>
       </c>
       <c r="L402" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N402" t="inlineStr">
@@ -33041,7 +33041,7 @@
         <v>6</v>
       </c>
       <c r="I403" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J403" t="inlineStr">
         <is>
@@ -33052,11 +33052,11 @@
         <v>2</v>
       </c>
       <c r="L403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N403" t="inlineStr">
@@ -33446,22 +33446,22 @@
         <v>6</v>
       </c>
       <c r="I408" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K408" t="n">
         <v>2</v>
       </c>
       <c r="L408" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N408" t="inlineStr">
@@ -33608,7 +33608,7 @@
         <v>6</v>
       </c>
       <c r="I410" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J410" t="inlineStr">
         <is>
@@ -33619,11 +33619,11 @@
         <v>2</v>
       </c>
       <c r="L410" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M410" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N410" t="inlineStr">
@@ -33932,7 +33932,7 @@
         <v>6</v>
       </c>
       <c r="I414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J414" t="inlineStr">
         <is>
@@ -34024,11 +34024,11 @@
         <v>2</v>
       </c>
       <c r="L415" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N415" t="inlineStr">
@@ -34094,7 +34094,7 @@
         <v>6</v>
       </c>
       <c r="I416" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J416" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>6</v>
       </c>
       <c r="I418" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J418" t="inlineStr">
         <is>
@@ -34348,11 +34348,11 @@
         <v>2</v>
       </c>
       <c r="L419" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N419" t="inlineStr">
@@ -35066,7 +35066,7 @@
         <v>6</v>
       </c>
       <c r="I428" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J428" t="inlineStr">
         <is>
@@ -35309,7 +35309,7 @@
         <v>6</v>
       </c>
       <c r="I431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J431" t="inlineStr">
         <is>
@@ -35390,7 +35390,7 @@
         <v>6</v>
       </c>
       <c r="I432" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J432" t="inlineStr">
         <is>
@@ -35401,11 +35401,11 @@
         <v>2</v>
       </c>
       <c r="L432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N432" t="inlineStr">
@@ -35876,18 +35876,18 @@
         <v>6</v>
       </c>
       <c r="I438" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K438" t="n">
         <v>2</v>
       </c>
       <c r="L438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M438" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>6</v>
       </c>
       <c r="I442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J442" t="inlineStr">
         <is>
@@ -36848,11 +36848,11 @@
         <v>6</v>
       </c>
       <c r="I450" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K450" t="n">
@@ -37334,7 +37334,7 @@
         <v>6</v>
       </c>
       <c r="I456" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J456" t="inlineStr">
         <is>
@@ -37658,18 +37658,18 @@
         <v>6</v>
       </c>
       <c r="I460" t="n">
+        <v>3</v>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K460" t="n">
+        <v>2</v>
+      </c>
+      <c r="L460" t="n">
         <v>1</v>
-      </c>
-      <c r="J460" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K460" t="n">
-        <v>2</v>
-      </c>
-      <c r="L460" t="n">
-        <v>0</v>
       </c>
       <c r="M460" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>6</v>
       </c>
       <c r="I470" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J470" t="inlineStr">
         <is>
@@ -38479,11 +38479,11 @@
         <v>2</v>
       </c>
       <c r="L470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M470" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N470" t="inlineStr">
@@ -38549,7 +38549,7 @@
         <v>6</v>
       </c>
       <c r="I471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J471" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>6</v>
       </c>
       <c r="I473" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J473" t="inlineStr">
         <is>
@@ -38722,11 +38722,11 @@
         <v>2</v>
       </c>
       <c r="L473" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M473" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N473" t="inlineStr">
@@ -38803,11 +38803,11 @@
         <v>2</v>
       </c>
       <c r="L474" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M474" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N474" t="inlineStr">
@@ -38965,11 +38965,11 @@
         <v>2</v>
       </c>
       <c r="L476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M476" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N476" t="inlineStr">
@@ -39116,22 +39116,22 @@
         <v>6</v>
       </c>
       <c r="I478" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K478" t="n">
         <v>2</v>
       </c>
       <c r="L478" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M478" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N478" t="inlineStr">
@@ -39278,7 +39278,7 @@
         <v>6</v>
       </c>
       <c r="I480" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J480" t="inlineStr">
         <is>
@@ -39359,11 +39359,11 @@
         <v>6</v>
       </c>
       <c r="I481" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K481" t="n">
@@ -39613,11 +39613,11 @@
         <v>2</v>
       </c>
       <c r="L484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M484" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N484" t="inlineStr">
@@ -39683,7 +39683,7 @@
         <v>6</v>
       </c>
       <c r="I485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J485" t="inlineStr">
         <is>
@@ -39694,7 +39694,7 @@
         <v>2</v>
       </c>
       <c r="L485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M485" t="inlineStr">
         <is>
@@ -39845,11 +39845,11 @@
         <v>6</v>
       </c>
       <c r="I487" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K487" t="n">
@@ -40331,7 +40331,7 @@
         <v>6</v>
       </c>
       <c r="I493" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J493" t="inlineStr">
         <is>
@@ -40412,22 +40412,22 @@
         <v>6</v>
       </c>
       <c r="I494" t="n">
+        <v>8</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K494" t="n">
+        <v>2</v>
+      </c>
+      <c r="L494" t="n">
         <v>3</v>
       </c>
-      <c r="J494" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K494" t="n">
-        <v>2</v>
-      </c>
-      <c r="L494" t="n">
-        <v>1</v>
-      </c>
       <c r="M494" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N494" t="inlineStr">
@@ -41071,7 +41071,7 @@
         <v>2</v>
       </c>
       <c r="L502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M502" t="inlineStr">
         <is>
@@ -41233,11 +41233,11 @@
         <v>2</v>
       </c>
       <c r="L504" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M504" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N504" t="inlineStr">
@@ -41303,7 +41303,7 @@
         <v>6</v>
       </c>
       <c r="I505" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J505" t="inlineStr">
         <is>
@@ -41634,7 +41634,7 @@
         <v>3</v>
       </c>
       <c r="L509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M509" t="inlineStr">
         <is>
@@ -41785,7 +41785,7 @@
         <v>6</v>
       </c>
       <c r="I511" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J511" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -25346,7 +25346,7 @@
         <v>6</v>
       </c>
       <c r="I308" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J308" t="inlineStr">
         <is>
@@ -28759,11 +28759,11 @@
         <v>2</v>
       </c>
       <c r="L350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N350" t="inlineStr">

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -3156,22 +3156,22 @@
         <v>6</v>
       </c>
       <c r="I34" t="n">
+        <v>4</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" t="n">
         <v>3</v>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>2</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -41704,7 +41704,7 @@
         <v>6</v>
       </c>
       <c r="I510" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J510" t="inlineStr">
         <is>
@@ -41715,11 +41715,11 @@
         <v>2</v>
       </c>
       <c r="L510" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M510" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N510" t="inlineStr">

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -3885,22 +3885,22 @@
         <v>6</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K43" t="n">
         <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7773,7 +7773,7 @@
         <v>6</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>2</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>2</v>
       </c>
       <c r="L185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>6</v>
       </c>
       <c r="I187" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
@@ -15560,11 +15560,11 @@
         <v>2</v>
       </c>
       <c r="L187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
@@ -34661,7 +34661,7 @@
         <v>6</v>
       </c>
       <c r="I423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J423" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>2</v>
       </c>
       <c r="L423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M423" t="inlineStr">
         <is>
@@ -40088,22 +40088,22 @@
         <v>6</v>
       </c>
       <c r="I490" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K490" t="n">
         <v>2</v>
       </c>
       <c r="L490" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M490" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N490" t="inlineStr">

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -1374,18 +1374,18 @@
         <v>6</v>
       </c>
       <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1466,11 +1466,11 @@
         <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1536,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2519,11 +2519,11 @@
         <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2994,7 +2994,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -3005,11 +3005,11 @@
         <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3572,11 +3572,11 @@
         <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3723,7 +3723,7 @@
         <v>6</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3734,11 +3734,11 @@
         <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3804,7 +3804,7 @@
         <v>6</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>6</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4463,11 +4463,11 @@
         <v>2</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4706,11 +4706,11 @@
         <v>2</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -5181,11 +5181,11 @@
         <v>6</v>
       </c>
       <c r="I59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K59" t="n">
@@ -5667,22 +5667,22 @@
         <v>6</v>
       </c>
       <c r="I65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K65" t="n">
         <v>2</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -6396,7 +6396,7 @@
         <v>6</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>2</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6801,22 +6801,22 @@
         <v>6</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K79" t="n">
         <v>2</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -7460,11 +7460,11 @@
         <v>2</v>
       </c>
       <c r="L87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -8016,7 +8016,7 @@
         <v>6</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -8097,11 +8097,11 @@
         <v>6</v>
       </c>
       <c r="I95" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K95" t="n">
@@ -8675,7 +8675,7 @@
         <v>2</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -8837,11 +8837,11 @@
         <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -8907,7 +8907,7 @@
         <v>6</v>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>2</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>6</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>6</v>
       </c>
       <c r="I110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>6</v>
       </c>
       <c r="I113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
         <v>6</v>
       </c>
       <c r="I117" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K117" t="n">
@@ -9971,7 +9971,7 @@
         <v>2</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>6</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -10052,11 +10052,11 @@
         <v>2</v>
       </c>
       <c r="L119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -10365,7 +10365,7 @@
         <v>6</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>2</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>6</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -11256,18 +11256,18 @@
         <v>6</v>
       </c>
       <c r="I134" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K134" t="n">
         <v>2</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>6</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>6</v>
       </c>
       <c r="I144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -12471,11 +12471,11 @@
         <v>6</v>
       </c>
       <c r="I149" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K149" t="n">
@@ -12552,7 +12552,7 @@
         <v>6</v>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -12806,11 +12806,11 @@
         <v>2</v>
       </c>
       <c r="L153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -12876,11 +12876,11 @@
         <v>6</v>
       </c>
       <c r="I154" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K154" t="n">
@@ -12957,7 +12957,7 @@
         <v>6</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>6</v>
       </c>
       <c r="I161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>6</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
@@ -14010,22 +14010,22 @@
         <v>6</v>
       </c>
       <c r="I168" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K168" t="n">
         <v>2</v>
       </c>
       <c r="L168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -14496,7 +14496,7 @@
         <v>6</v>
       </c>
       <c r="I174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>6</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
@@ -14588,11 +14588,11 @@
         <v>2</v>
       </c>
       <c r="L175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
@@ -14912,11 +14912,11 @@
         <v>2</v>
       </c>
       <c r="L179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -14982,22 +14982,22 @@
         <v>6</v>
       </c>
       <c r="I180" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K180" t="n">
         <v>2</v>
       </c>
       <c r="L180" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -15630,7 +15630,7 @@
         <v>6</v>
       </c>
       <c r="I188" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
@@ -15641,11 +15641,11 @@
         <v>2</v>
       </c>
       <c r="L188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -15803,11 +15803,11 @@
         <v>2</v>
       </c>
       <c r="L190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
@@ -15954,7 +15954,7 @@
         <v>6</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>6</v>
       </c>
       <c r="I193" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>2</v>
       </c>
       <c r="L193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>6</v>
       </c>
       <c r="I194" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
@@ -16440,22 +16440,22 @@
         <v>6</v>
       </c>
       <c r="I198" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K198" t="n">
         <v>2</v>
       </c>
       <c r="L198" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
@@ -16613,11 +16613,11 @@
         <v>2</v>
       </c>
       <c r="L200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
@@ -16694,11 +16694,11 @@
         <v>2</v>
       </c>
       <c r="L201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
@@ -16926,7 +16926,7 @@
         <v>6</v>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>2</v>
       </c>
       <c r="L207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>2</v>
       </c>
       <c r="L210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M210" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>6</v>
       </c>
       <c r="I211" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>2</v>
       </c>
       <c r="L211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M211" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>6</v>
       </c>
       <c r="I212" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
@@ -17585,11 +17585,11 @@
         <v>2</v>
       </c>
       <c r="L212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -18395,11 +18395,11 @@
         <v>2</v>
       </c>
       <c r="L222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
@@ -18546,7 +18546,7 @@
         <v>6</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>2</v>
       </c>
       <c r="L224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M224" t="inlineStr">
         <is>
@@ -18951,11 +18951,11 @@
         <v>6</v>
       </c>
       <c r="I229" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K229" t="n">
@@ -19367,11 +19367,11 @@
         <v>2</v>
       </c>
       <c r="L234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -19599,7 +19599,7 @@
         <v>6</v>
       </c>
       <c r="I237" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
@@ -19761,18 +19761,18 @@
         <v>6</v>
       </c>
       <c r="I239" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K239" t="n">
         <v>2</v>
       </c>
       <c r="L239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M239" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>2</v>
       </c>
       <c r="L244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M244" t="inlineStr">
         <is>
@@ -20405,11 +20405,11 @@
         <v>6</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K247" t="n">
@@ -20648,7 +20648,7 @@
         <v>6</v>
       </c>
       <c r="I250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>6</v>
       </c>
       <c r="I260" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
@@ -21469,11 +21469,11 @@
         <v>2</v>
       </c>
       <c r="L260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -21701,7 +21701,7 @@
         <v>6</v>
       </c>
       <c r="I263" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J263" t="inlineStr">
         <is>
@@ -22025,18 +22025,18 @@
         <v>6</v>
       </c>
       <c r="I267" t="n">
+        <v>2</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>2</v>
+      </c>
+      <c r="L267" t="n">
         <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K267" t="n">
-        <v>2</v>
-      </c>
-      <c r="L267" t="n">
-        <v>0</v>
       </c>
       <c r="M267" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>6</v>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J268" t="inlineStr">
         <is>
@@ -22117,11 +22117,11 @@
         <v>2</v>
       </c>
       <c r="L268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
@@ -22187,11 +22187,11 @@
         <v>6</v>
       </c>
       <c r="I269" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K269" t="n">
@@ -22997,7 +22997,7 @@
         <v>6</v>
       </c>
       <c r="I279" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J279" t="inlineStr">
         <is>
@@ -23008,11 +23008,11 @@
         <v>2</v>
       </c>
       <c r="L279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N279" t="inlineStr">
@@ -23159,7 +23159,7 @@
         <v>6</v>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J281" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>2</v>
       </c>
       <c r="L281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M281" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>6</v>
       </c>
       <c r="I282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J282" t="inlineStr">
         <is>
@@ -23251,11 +23251,11 @@
         <v>2</v>
       </c>
       <c r="L282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N282" t="inlineStr">
@@ -23332,7 +23332,7 @@
         <v>2</v>
       </c>
       <c r="L283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M283" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>6</v>
       </c>
       <c r="I284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J284" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>6</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J287" t="inlineStr">
         <is>
@@ -24536,7 +24536,7 @@
         <v>6</v>
       </c>
       <c r="I298" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J298" t="inlineStr">
         <is>
@@ -24952,11 +24952,11 @@
         <v>2</v>
       </c>
       <c r="L303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
@@ -25832,7 +25832,7 @@
         <v>6</v>
       </c>
       <c r="I314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J314" t="inlineStr">
         <is>
@@ -25843,11 +25843,11 @@
         <v>2</v>
       </c>
       <c r="L314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N314" t="inlineStr">
@@ -25913,7 +25913,7 @@
         <v>6</v>
       </c>
       <c r="I315" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J315" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>6</v>
       </c>
       <c r="I319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J319" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>2</v>
       </c>
       <c r="L319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M319" t="inlineStr">
         <is>
@@ -26804,7 +26804,7 @@
         <v>6</v>
       </c>
       <c r="I326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J326" t="inlineStr">
         <is>
@@ -27128,11 +27128,11 @@
         <v>6</v>
       </c>
       <c r="I330" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K330" t="n">
@@ -27290,7 +27290,7 @@
         <v>6</v>
       </c>
       <c r="I332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J332" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>6</v>
       </c>
       <c r="I333" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J333" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>6</v>
       </c>
       <c r="I334" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J334" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         <v>6</v>
       </c>
       <c r="I336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J336" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>2</v>
       </c>
       <c r="L336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M336" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>6</v>
       </c>
       <c r="I337" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J337" t="inlineStr">
         <is>
@@ -28181,11 +28181,11 @@
         <v>6</v>
       </c>
       <c r="I343" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K343" t="n">
@@ -28424,7 +28424,7 @@
         <v>6</v>
       </c>
       <c r="I346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="inlineStr">
         <is>
@@ -28829,11 +28829,11 @@
         <v>6</v>
       </c>
       <c r="I351" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K351" t="n">
@@ -28910,7 +28910,7 @@
         <v>6</v>
       </c>
       <c r="I352" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J352" t="inlineStr">
         <is>
@@ -28921,11 +28921,11 @@
         <v>2</v>
       </c>
       <c r="L352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N352" t="inlineStr">
@@ -28991,7 +28991,7 @@
         <v>6</v>
       </c>
       <c r="I353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353" t="inlineStr">
         <is>
@@ -29083,11 +29083,11 @@
         <v>2</v>
       </c>
       <c r="L354" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N354" t="inlineStr">
@@ -30125,11 +30125,11 @@
         <v>6</v>
       </c>
       <c r="I367" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K367" t="n">
@@ -30206,7 +30206,7 @@
         <v>6</v>
       </c>
       <c r="I368" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J368" t="inlineStr">
         <is>
@@ -30217,11 +30217,11 @@
         <v>2</v>
       </c>
       <c r="L368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N368" t="inlineStr">
@@ -30449,11 +30449,11 @@
         <v>6</v>
       </c>
       <c r="I371" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K371" t="n">
@@ -30611,7 +30611,7 @@
         <v>6</v>
       </c>
       <c r="I373" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J373" t="inlineStr">
         <is>
@@ -30935,18 +30935,18 @@
         <v>6</v>
       </c>
       <c r="I377" t="n">
+        <v>4</v>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K377" t="n">
+        <v>2</v>
+      </c>
+      <c r="L377" t="n">
         <v>1</v>
-      </c>
-      <c r="J377" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K377" t="n">
-        <v>2</v>
-      </c>
-      <c r="L377" t="n">
-        <v>0</v>
       </c>
       <c r="M377" t="inlineStr">
         <is>
@@ -31351,11 +31351,11 @@
         <v>2</v>
       </c>
       <c r="L382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N382" t="inlineStr">
@@ -31583,7 +31583,7 @@
         <v>6</v>
       </c>
       <c r="I385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J385" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>2</v>
       </c>
       <c r="L391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M391" t="inlineStr">
         <is>
@@ -32555,7 +32555,7 @@
         <v>6</v>
       </c>
       <c r="I397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J397" t="inlineStr">
         <is>
@@ -33122,7 +33122,7 @@
         <v>6</v>
       </c>
       <c r="I404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J404" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>6</v>
       </c>
       <c r="I407" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J407" t="inlineStr">
         <is>
@@ -33781,11 +33781,11 @@
         <v>2</v>
       </c>
       <c r="L412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N412" t="inlineStr">
@@ -33932,18 +33932,18 @@
         <v>6</v>
       </c>
       <c r="I414" t="n">
+        <v>2</v>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K414" t="n">
+        <v>2</v>
+      </c>
+      <c r="L414" t="n">
         <v>1</v>
-      </c>
-      <c r="J414" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K414" t="n">
-        <v>2</v>
-      </c>
-      <c r="L414" t="n">
-        <v>0</v>
       </c>
       <c r="M414" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>6</v>
       </c>
       <c r="I417" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J417" t="inlineStr">
         <is>
@@ -34337,7 +34337,7 @@
         <v>6</v>
       </c>
       <c r="I419" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J419" t="inlineStr">
         <is>
@@ -35228,7 +35228,7 @@
         <v>6</v>
       </c>
       <c r="I430" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J430" t="inlineStr">
         <is>
@@ -35876,7 +35876,7 @@
         <v>6</v>
       </c>
       <c r="I438" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J438" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>6</v>
       </c>
       <c r="I439" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J439" t="inlineStr">
         <is>
@@ -36524,7 +36524,7 @@
         <v>6</v>
       </c>
       <c r="I446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J446" t="inlineStr">
         <is>
@@ -36535,11 +36535,11 @@
         <v>2</v>
       </c>
       <c r="L446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M446" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N446" t="inlineStr">
@@ -36605,11 +36605,11 @@
         <v>6</v>
       </c>
       <c r="I447" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K447" t="n">
@@ -36686,11 +36686,11 @@
         <v>6</v>
       </c>
       <c r="I448" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K448" t="n">
@@ -36859,7 +36859,7 @@
         <v>2</v>
       </c>
       <c r="L450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M450" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>6</v>
       </c>
       <c r="I451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J451" t="inlineStr">
         <is>
@@ -36940,7 +36940,7 @@
         <v>2</v>
       </c>
       <c r="L451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M451" t="inlineStr">
         <is>
@@ -37010,7 +37010,7 @@
         <v>6</v>
       </c>
       <c r="I452" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J452" t="inlineStr">
         <is>
@@ -37091,7 +37091,7 @@
         <v>6</v>
       </c>
       <c r="I453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J453" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>6</v>
       </c>
       <c r="I456" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J456" t="inlineStr">
         <is>
@@ -38722,11 +38722,11 @@
         <v>2</v>
       </c>
       <c r="L473" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M473" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N473" t="inlineStr">
@@ -39116,7 +39116,7 @@
         <v>6</v>
       </c>
       <c r="I478" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J478" t="inlineStr">
         <is>
@@ -39127,7 +39127,7 @@
         <v>2</v>
       </c>
       <c r="L478" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M478" t="inlineStr">
         <is>
@@ -39197,11 +39197,11 @@
         <v>6</v>
       </c>
       <c r="I479" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K479" t="n">
@@ -39764,7 +39764,7 @@
         <v>6</v>
       </c>
       <c r="I486" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J486" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>6</v>
       </c>
       <c r="I492" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J492" t="inlineStr">
         <is>
@@ -40412,7 +40412,7 @@
         <v>6</v>
       </c>
       <c r="I494" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J494" t="inlineStr">
         <is>
@@ -40423,7 +40423,7 @@
         <v>2</v>
       </c>
       <c r="L494" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M494" t="inlineStr">
         <is>
@@ -40493,7 +40493,7 @@
         <v>6</v>
       </c>
       <c r="I495" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J495" t="inlineStr">
         <is>
@@ -40504,7 +40504,7 @@
         <v>2</v>
       </c>
       <c r="L495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M495" t="inlineStr">
         <is>
@@ -41060,7 +41060,7 @@
         <v>6</v>
       </c>
       <c r="I502" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J502" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>6</v>
       </c>
       <c r="I503" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J503" t="inlineStr">
         <is>
@@ -41152,7 +41152,7 @@
         <v>2</v>
       </c>
       <c r="L503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M503" t="inlineStr">
         <is>
@@ -41303,11 +41303,11 @@
         <v>6</v>
       </c>
       <c r="I505" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K505" t="n">
@@ -41384,7 +41384,7 @@
         <v>6</v>
       </c>
       <c r="I506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J506" t="inlineStr">
         <is>
@@ -41704,11 +41704,11 @@
         <v>6</v>
       </c>
       <c r="I510" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K510" t="n">
@@ -41785,7 +41785,7 @@
         <v>6</v>
       </c>
       <c r="I511" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J511" t="inlineStr">
         <is>
@@ -41796,7 +41796,7 @@
         <v>2</v>
       </c>
       <c r="L511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M511" t="inlineStr">
         <is>
@@ -41877,7 +41877,7 @@
         <v>2</v>
       </c>
       <c r="L512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M512" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -575,11 +575,11 @@
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -818,11 +818,11 @@
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1131,7 +1131,7 @@
         <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2843,11 +2843,11 @@
         <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2913,7 +2913,7 @@
         <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2924,11 +2924,11 @@
         <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3318,22 +3318,22 @@
         <v>6</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K36" t="n">
         <v>2</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -4533,7 +4533,7 @@
         <v>6</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4544,11 +4544,11 @@
         <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4776,7 +4776,7 @@
         <v>6</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -5100,11 +5100,11 @@
         <v>6</v>
       </c>
       <c r="I58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K58" t="n">
@@ -5343,11 +5343,11 @@
         <v>6</v>
       </c>
       <c r="I61" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K61" t="n">
@@ -5505,7 +5505,7 @@
         <v>6</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>2</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6569,11 +6569,11 @@
         <v>2</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -6893,11 +6893,11 @@
         <v>2</v>
       </c>
       <c r="L80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -7287,7 +7287,7 @@
         <v>6</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -7298,11 +7298,11 @@
         <v>2</v>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -7530,7 +7530,7 @@
         <v>6</v>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>6</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>6</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>6</v>
       </c>
       <c r="I95" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>2</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -8664,22 +8664,22 @@
         <v>6</v>
       </c>
       <c r="I102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
           <t>S</t>
-        </is>
-      </c>
-      <c r="K102" t="n">
-        <v>2</v>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>I</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -8745,7 +8745,7 @@
         <v>6</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>2</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>6</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>6</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -10538,11 +10538,11 @@
         <v>2</v>
       </c>
       <c r="L125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -10608,7 +10608,7 @@
         <v>6</v>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>6</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -10862,11 +10862,11 @@
         <v>2</v>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -11186,7 +11186,7 @@
         <v>2</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>6</v>
       </c>
       <c r="I134" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>6</v>
       </c>
       <c r="I139" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
@@ -11672,11 +11672,11 @@
         <v>2</v>
       </c>
       <c r="L139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -11996,7 +11996,7 @@
         <v>2</v>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
@@ -12147,11 +12147,11 @@
         <v>6</v>
       </c>
       <c r="I145" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K145" t="n">
@@ -12320,7 +12320,7 @@
         <v>2</v>
       </c>
       <c r="L147" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>6</v>
       </c>
       <c r="I148" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>6</v>
       </c>
       <c r="I150" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>6</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
@@ -12644,11 +12644,11 @@
         <v>2</v>
       </c>
       <c r="L151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -12714,22 +12714,22 @@
         <v>6</v>
       </c>
       <c r="I152" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K152" t="n">
         <v>2</v>
       </c>
       <c r="L152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -12957,7 +12957,7 @@
         <v>6</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
@@ -12968,11 +12968,11 @@
         <v>2</v>
       </c>
       <c r="L155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -13281,22 +13281,22 @@
         <v>6</v>
       </c>
       <c r="I159" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>I</t>
         </is>
       </c>
       <c r="K159" t="n">
         <v>2</v>
       </c>
       <c r="L159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -13362,7 +13362,7 @@
         <v>6</v>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>6</v>
       </c>
       <c r="I161" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>6</v>
       </c>
       <c r="I174" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>2</v>
       </c>
       <c r="L174" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -14739,11 +14739,11 @@
         <v>6</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K177" t="n">
@@ -15144,7 +15144,7 @@
         <v>6</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
@@ -15155,11 +15155,11 @@
         <v>2</v>
       </c>
       <c r="L182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -15468,22 +15468,22 @@
         <v>6</v>
       </c>
       <c r="I186" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K186" t="n">
         <v>2</v>
       </c>
       <c r="L186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -15549,11 +15549,11 @@
         <v>6</v>
       </c>
       <c r="I187" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K187" t="n">
@@ -15711,11 +15711,11 @@
         <v>6</v>
       </c>
       <c r="I189" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K189" t="n">
@@ -16359,7 +16359,7 @@
         <v>6</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>2</v>
       </c>
       <c r="L197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>6</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>6</v>
       </c>
       <c r="I200" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>6</v>
       </c>
       <c r="I202" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>6</v>
       </c>
       <c r="I203" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J203" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>6</v>
       </c>
       <c r="I204" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
@@ -17423,11 +17423,11 @@
         <v>2</v>
       </c>
       <c r="L210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
@@ -17828,11 +17828,11 @@
         <v>2</v>
       </c>
       <c r="L215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -17898,7 +17898,7 @@
         <v>6</v>
       </c>
       <c r="I216" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>6</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>6</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>2</v>
       </c>
       <c r="L218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>2</v>
       </c>
       <c r="L219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>6</v>
       </c>
       <c r="I223" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>6</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
@@ -18951,11 +18951,11 @@
         <v>6</v>
       </c>
       <c r="I229" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K229" t="n">
@@ -19032,7 +19032,7 @@
         <v>6</v>
       </c>
       <c r="I230" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>2</v>
       </c>
       <c r="L232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>6</v>
       </c>
       <c r="I239" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>6</v>
       </c>
       <c r="I240" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>6</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J241" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         <v>2</v>
       </c>
       <c r="L241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M241" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>6</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J243" t="inlineStr">
         <is>
@@ -20096,11 +20096,11 @@
         <v>2</v>
       </c>
       <c r="L243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -20243,7 +20243,7 @@
         <v>6</v>
       </c>
       <c r="I245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J245" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>6</v>
       </c>
       <c r="I247" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J247" t="inlineStr">
         <is>
@@ -20648,22 +20648,22 @@
         <v>6</v>
       </c>
       <c r="I250" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K250" t="n">
         <v>2</v>
       </c>
       <c r="L250" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
@@ -20729,7 +20729,7 @@
         <v>6</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="inlineStr">
         <is>
@@ -20740,11 +20740,11 @@
         <v>2</v>
       </c>
       <c r="L251" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
@@ -20902,7 +20902,7 @@
         <v>2</v>
       </c>
       <c r="L253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M253" t="inlineStr">
         <is>
@@ -20972,18 +20972,18 @@
         <v>6</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K254" t="n">
         <v>2</v>
       </c>
       <c r="L254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M254" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>6</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J255" t="inlineStr">
         <is>
@@ -21134,18 +21134,18 @@
         <v>6</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K256" t="n">
         <v>2</v>
       </c>
       <c r="L256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M256" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>6</v>
       </c>
       <c r="I261" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J261" t="inlineStr">
         <is>
@@ -21620,7 +21620,7 @@
         <v>6</v>
       </c>
       <c r="I262" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>6</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J266" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>6</v>
       </c>
       <c r="I267" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J267" t="inlineStr">
         <is>
@@ -22430,11 +22430,11 @@
         <v>6</v>
       </c>
       <c r="I272" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K272" t="n">
@@ -22835,7 +22835,7 @@
         <v>6</v>
       </c>
       <c r="I277" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J277" t="inlineStr">
         <is>
@@ -22846,11 +22846,11 @@
         <v>2</v>
       </c>
       <c r="L277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
@@ -22916,7 +22916,7 @@
         <v>6</v>
       </c>
       <c r="I278" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J278" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>6</v>
       </c>
       <c r="I282" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J282" t="inlineStr">
         <is>
@@ -23251,11 +23251,11 @@
         <v>2</v>
       </c>
       <c r="L282" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N282" t="inlineStr">
@@ -23321,7 +23321,7 @@
         <v>6</v>
       </c>
       <c r="I283" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J283" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>6</v>
       </c>
       <c r="I284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J284" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>6</v>
       </c>
       <c r="I288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J288" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>2</v>
       </c>
       <c r="L288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M288" t="inlineStr">
         <is>
@@ -23818,11 +23818,11 @@
         <v>2</v>
       </c>
       <c r="L289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N289" t="inlineStr">
@@ -24779,7 +24779,7 @@
         <v>6</v>
       </c>
       <c r="I301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J301" t="inlineStr">
         <is>
@@ -24790,11 +24790,11 @@
         <v>2</v>
       </c>
       <c r="L301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N301" t="inlineStr">
@@ -24952,11 +24952,11 @@
         <v>2</v>
       </c>
       <c r="L303" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
@@ -25022,7 +25022,7 @@
         <v>6</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J304" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>2</v>
       </c>
       <c r="L304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M304" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>6</v>
       </c>
       <c r="I305" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J305" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>6</v>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>6</v>
       </c>
       <c r="I307" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J307" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>6</v>
       </c>
       <c r="I308" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J308" t="inlineStr">
         <is>
@@ -25357,11 +25357,11 @@
         <v>2</v>
       </c>
       <c r="L308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
@@ -25427,7 +25427,7 @@
         <v>6</v>
       </c>
       <c r="I309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J309" t="inlineStr">
         <is>
@@ -26480,7 +26480,7 @@
         <v>6</v>
       </c>
       <c r="I322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J322" t="inlineStr">
         <is>
@@ -26804,7 +26804,7 @@
         <v>6</v>
       </c>
       <c r="I326" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J326" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>6</v>
       </c>
       <c r="I327" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J327" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         <v>6</v>
       </c>
       <c r="I336" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J336" t="inlineStr">
         <is>
@@ -27625,11 +27625,11 @@
         <v>2</v>
       </c>
       <c r="L336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N336" t="inlineStr">
@@ -27695,7 +27695,7 @@
         <v>6</v>
       </c>
       <c r="I337" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J337" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>6</v>
       </c>
       <c r="I345" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J345" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>2</v>
       </c>
       <c r="L346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M346" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         <v>6</v>
       </c>
       <c r="I348" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J348" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>6</v>
       </c>
       <c r="I349" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J349" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>6</v>
       </c>
       <c r="I350" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J350" t="inlineStr">
         <is>
@@ -28759,11 +28759,11 @@
         <v>2</v>
       </c>
       <c r="L350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>I</t>
         </is>
       </c>
       <c r="N350" t="inlineStr">
@@ -29072,7 +29072,7 @@
         <v>6</v>
       </c>
       <c r="I354" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J354" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>6</v>
       </c>
       <c r="I356" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J356" t="inlineStr">
         <is>
@@ -29245,11 +29245,11 @@
         <v>2</v>
       </c>
       <c r="L356" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N356" t="inlineStr">
@@ -29315,7 +29315,7 @@
         <v>6</v>
       </c>
       <c r="I357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J357" t="inlineStr">
         <is>
@@ -29326,11 +29326,11 @@
         <v>2</v>
       </c>
       <c r="L357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N357" t="inlineStr">
@@ -29558,11 +29558,11 @@
         <v>6</v>
       </c>
       <c r="I360" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K360" t="n">
@@ -30287,11 +30287,11 @@
         <v>6</v>
       </c>
       <c r="I369" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K369" t="n">
@@ -31178,11 +31178,11 @@
         <v>6</v>
       </c>
       <c r="I380" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K380" t="n">
@@ -31421,7 +31421,7 @@
         <v>6</v>
       </c>
       <c r="I383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J383" t="inlineStr">
         <is>
@@ -31513,11 +31513,11 @@
         <v>2</v>
       </c>
       <c r="L384" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N384" t="inlineStr">
@@ -31988,7 +31988,7 @@
         <v>6</v>
       </c>
       <c r="I390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J390" t="inlineStr">
         <is>
@@ -32069,11 +32069,11 @@
         <v>6</v>
       </c>
       <c r="I391" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K391" t="n">
@@ -32231,7 +32231,7 @@
         <v>6</v>
       </c>
       <c r="I393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J393" t="inlineStr">
         <is>
@@ -32242,7 +32242,7 @@
         <v>2</v>
       </c>
       <c r="L393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M393" t="inlineStr">
         <is>
@@ -32393,7 +32393,7 @@
         <v>6</v>
       </c>
       <c r="I395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J395" t="inlineStr">
         <is>
@@ -32555,7 +32555,7 @@
         <v>6</v>
       </c>
       <c r="I397" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J397" t="inlineStr">
         <is>
@@ -32879,7 +32879,7 @@
         <v>6</v>
       </c>
       <c r="I401" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J401" t="inlineStr">
         <is>
@@ -32890,11 +32890,11 @@
         <v>2</v>
       </c>
       <c r="L401" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N401" t="inlineStr">
@@ -32971,7 +32971,7 @@
         <v>2</v>
       </c>
       <c r="L402" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M402" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>6</v>
       </c>
       <c r="I409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J409" t="inlineStr">
         <is>
@@ -33608,11 +33608,11 @@
         <v>6</v>
       </c>
       <c r="I410" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K410" t="n">
@@ -33689,7 +33689,7 @@
         <v>6</v>
       </c>
       <c r="I411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J411" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>2</v>
       </c>
       <c r="L411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M411" t="inlineStr">
         <is>
@@ -33932,11 +33932,11 @@
         <v>6</v>
       </c>
       <c r="I414" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K414" t="n">
@@ -34013,7 +34013,7 @@
         <v>6</v>
       </c>
       <c r="I415" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J415" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>6</v>
       </c>
       <c r="I417" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J417" t="inlineStr">
         <is>
@@ -34429,7 +34429,7 @@
         <v>2</v>
       </c>
       <c r="L420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M420" t="inlineStr">
         <is>
@@ -34661,22 +34661,22 @@
         <v>6</v>
       </c>
       <c r="I423" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K423" t="n">
         <v>2</v>
       </c>
       <c r="L423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M423" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N423" t="inlineStr">
@@ -35228,7 +35228,7 @@
         <v>6</v>
       </c>
       <c r="I430" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J430" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>2</v>
       </c>
       <c r="L430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M430" t="inlineStr">
         <is>
@@ -35471,7 +35471,7 @@
         <v>6</v>
       </c>
       <c r="I433" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J433" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>6</v>
       </c>
       <c r="I434" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J434" t="inlineStr">
         <is>
@@ -35795,22 +35795,22 @@
         <v>2</v>
       </c>
       <c r="I437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K437" t="n">
         <v>2</v>
       </c>
       <c r="L437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M437" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N437" t="inlineStr">
@@ -35876,7 +35876,7 @@
         <v>6</v>
       </c>
       <c r="I438" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J438" t="inlineStr">
         <is>
@@ -35957,11 +35957,11 @@
         <v>6</v>
       </c>
       <c r="I439" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K439" t="n">
@@ -36119,7 +36119,7 @@
         <v>6</v>
       </c>
       <c r="I441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J441" t="inlineStr">
         <is>
@@ -36130,11 +36130,11 @@
         <v>2</v>
       </c>
       <c r="L441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M441" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N441" t="inlineStr">
@@ -36443,7 +36443,7 @@
         <v>6</v>
       </c>
       <c r="I445" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J445" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>6</v>
       </c>
       <c r="I449" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J449" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>2</v>
       </c>
       <c r="L449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M449" t="inlineStr">
         <is>
@@ -37253,22 +37253,22 @@
         <v>6</v>
       </c>
       <c r="I455" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K455" t="n">
         <v>2</v>
       </c>
       <c r="L455" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N455" t="inlineStr">
@@ -37658,7 +37658,7 @@
         <v>6</v>
       </c>
       <c r="I460" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J460" t="inlineStr">
         <is>
@@ -38063,7 +38063,7 @@
         <v>6</v>
       </c>
       <c r="I465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J465" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>6</v>
       </c>
       <c r="I473" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J473" t="inlineStr">
         <is>
@@ -38722,11 +38722,11 @@
         <v>2</v>
       </c>
       <c r="L473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M473" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N473" t="inlineStr">
@@ -39127,7 +39127,7 @@
         <v>2</v>
       </c>
       <c r="L478" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M478" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>2</v>
       </c>
       <c r="L479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M479" t="inlineStr">
         <is>
@@ -39532,7 +39532,7 @@
         <v>2</v>
       </c>
       <c r="L483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M483" t="inlineStr">
         <is>
@@ -39764,11 +39764,11 @@
         <v>6</v>
       </c>
       <c r="I486" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K486" t="n">
@@ -40099,7 +40099,7 @@
         <v>2</v>
       </c>
       <c r="L490" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M490" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>6</v>
       </c>
       <c r="I496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J496" t="inlineStr">
         <is>
@@ -40585,11 +40585,11 @@
         <v>2</v>
       </c>
       <c r="L496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M496" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N496" t="inlineStr">
@@ -40655,7 +40655,7 @@
         <v>6</v>
       </c>
       <c r="I497" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J497" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>6</v>
       </c>
       <c r="I498" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J498" t="inlineStr">
         <is>
@@ -40747,11 +40747,11 @@
         <v>2</v>
       </c>
       <c r="L498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M498" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N498" t="inlineStr">
@@ -40817,7 +40817,7 @@
         <v>6</v>
       </c>
       <c r="I499" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J499" t="inlineStr">
         <is>
@@ -40898,7 +40898,7 @@
         <v>6</v>
       </c>
       <c r="I500" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J500" t="inlineStr">
         <is>
@@ -40979,7 +40979,7 @@
         <v>6</v>
       </c>
       <c r="I501" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J501" t="inlineStr">
         <is>
@@ -41060,7 +41060,7 @@
         <v>6</v>
       </c>
       <c r="I502" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J502" t="inlineStr">
         <is>
@@ -41384,18 +41384,18 @@
         <v>6</v>
       </c>
       <c r="I506" t="n">
+        <v>2</v>
+      </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K506" t="n">
+        <v>2</v>
+      </c>
+      <c r="L506" t="n">
         <v>1</v>
-      </c>
-      <c r="J506" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K506" t="n">
-        <v>2</v>
-      </c>
-      <c r="L506" t="n">
-        <v>0</v>
       </c>
       <c r="M506" t="inlineStr">
         <is>
@@ -41557,11 +41557,11 @@
         <v>2</v>
       </c>
       <c r="L508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M508" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N508" t="inlineStr">
@@ -41796,11 +41796,11 @@
         <v>2</v>
       </c>
       <c r="L511" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M511" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N511" t="inlineStr">
@@ -41877,11 +41877,11 @@
         <v>2</v>
       </c>
       <c r="L512" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M512" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N512" t="inlineStr">

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1061,11 +1061,11 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1131,11 +1131,11 @@
         <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -1293,7 +1293,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1466,11 +1466,11 @@
         <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1617,7 +1617,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1628,11 +1628,11 @@
         <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1790,11 +1790,11 @@
         <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1860,7 +1860,7 @@
         <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2346,22 +2346,22 @@
         <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2427,11 +2427,11 @@
         <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -2519,11 +2519,11 @@
         <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2670,7 +2670,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2913,22 +2913,22 @@
         <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K31" t="n">
         <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2994,11 +2994,11 @@
         <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -3237,18 +3237,18 @@
         <v>6</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K35" t="n">
         <v>2</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>6</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3480,18 +3480,18 @@
         <v>6</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K38" t="n">
         <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>6</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3966,22 +3966,22 @@
         <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K44" t="n">
         <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -4047,7 +4047,7 @@
         <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -4058,11 +4058,11 @@
         <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4128,7 +4128,7 @@
         <v>6</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>2</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>6</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4220,11 +4220,11 @@
         <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4452,22 +4452,22 @@
         <v>6</v>
       </c>
       <c r="I50" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
         <v>4</v>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>2</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2</v>
-      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4533,7 +4533,7 @@
         <v>6</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4776,11 +4776,11 @@
         <v>6</v>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K54" t="n">
@@ -4857,22 +4857,22 @@
         <v>6</v>
       </c>
       <c r="I55" t="n">
+        <v>10</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" t="n">
         <v>4</v>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
-        <v>2</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5100,7 +5100,7 @@
         <v>6</v>
       </c>
       <c r="I58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -5505,11 +5505,11 @@
         <v>6</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K63" t="n">
@@ -5667,11 +5667,11 @@
         <v>6</v>
       </c>
       <c r="I65" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K65" t="n">
@@ -5840,11 +5840,11 @@
         <v>2</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5921,7 +5921,7 @@
         <v>2</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>2</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6072,22 +6072,22 @@
         <v>6</v>
       </c>
       <c r="I70" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
           <t>S</t>
-        </is>
-      </c>
-      <c r="K70" t="n">
-        <v>2</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>I</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -6315,22 +6315,22 @@
         <v>6</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K73" t="n">
         <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6407,7 +6407,7 @@
         <v>2</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6650,11 +6650,11 @@
         <v>2</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6882,11 +6882,11 @@
         <v>6</v>
       </c>
       <c r="I80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K80" t="n">
@@ -7287,18 +7287,18 @@
         <v>6</v>
       </c>
       <c r="I85" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K85" t="n">
         <v>2</v>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>6</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -7541,11 +7541,11 @@
         <v>2</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -7773,22 +7773,22 @@
         <v>6</v>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K91" t="n">
         <v>2</v>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7946,11 +7946,11 @@
         <v>2</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -8016,22 +8016,22 @@
         <v>6</v>
       </c>
       <c r="I94" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K94" t="n">
         <v>2</v>
       </c>
       <c r="L94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -8097,7 +8097,7 @@
         <v>6</v>
       </c>
       <c r="I95" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>6</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>6</v>
       </c>
       <c r="I104" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -8837,11 +8837,11 @@
         <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -8907,7 +8907,7 @@
         <v>6</v>
       </c>
       <c r="I105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>2</v>
       </c>
       <c r="L109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -9312,11 +9312,11 @@
         <v>6</v>
       </c>
       <c r="I110" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K110" t="n">
@@ -9555,22 +9555,22 @@
         <v>6</v>
       </c>
       <c r="I113" t="n">
+        <v>6</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>2</v>
+      </c>
+      <c r="L113" t="n">
         <v>3</v>
       </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K113" t="n">
-        <v>2</v>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -9717,11 +9717,11 @@
         <v>6</v>
       </c>
       <c r="I115" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K115" t="n">
@@ -9798,7 +9798,7 @@
         <v>6</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>6</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -9971,11 +9971,11 @@
         <v>2</v>
       </c>
       <c r="L118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -10203,11 +10203,11 @@
         <v>6</v>
       </c>
       <c r="I121" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K121" t="n">
@@ -10365,7 +10365,7 @@
         <v>6</v>
       </c>
       <c r="I123" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>2</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
@@ -10446,18 +10446,18 @@
         <v>6</v>
       </c>
       <c r="I124" t="n">
+        <v>2</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>2</v>
+      </c>
+      <c r="L124" t="n">
         <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K124" t="n">
-        <v>2</v>
-      </c>
-      <c r="L124" t="n">
-        <v>0</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
@@ -10527,22 +10527,22 @@
         <v>6</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K125" t="n">
         <v>2</v>
       </c>
       <c r="L125" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -10851,7 +10851,7 @@
         <v>6</v>
       </c>
       <c r="I129" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -10943,11 +10943,11 @@
         <v>2</v>
       </c>
       <c r="L130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -11013,22 +11013,22 @@
         <v>6</v>
       </c>
       <c r="I131" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K131" t="n">
         <v>2</v>
       </c>
       <c r="L131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -11094,7 +11094,7 @@
         <v>6</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
@@ -11105,11 +11105,11 @@
         <v>2</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -11256,7 +11256,7 @@
         <v>6</v>
       </c>
       <c r="I134" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>6</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
@@ -11348,11 +11348,11 @@
         <v>2</v>
       </c>
       <c r="L135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -11499,7 +11499,7 @@
         <v>6</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>2</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>6</v>
       </c>
       <c r="I139" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>6</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
@@ -11753,11 +11753,11 @@
         <v>2</v>
       </c>
       <c r="L140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -11904,7 +11904,7 @@
         <v>6</v>
       </c>
       <c r="I142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>6</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
@@ -11996,11 +11996,11 @@
         <v>2</v>
       </c>
       <c r="L143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -12066,22 +12066,22 @@
         <v>6</v>
       </c>
       <c r="I144" t="n">
+        <v>6</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>2</v>
+      </c>
+      <c r="L144" t="n">
         <v>3</v>
       </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K144" t="n">
-        <v>2</v>
-      </c>
-      <c r="L144" t="n">
-        <v>0</v>
-      </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -12228,11 +12228,11 @@
         <v>6</v>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K146" t="n">
@@ -12552,22 +12552,22 @@
         <v>6</v>
       </c>
       <c r="I150" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K150" t="n">
         <v>2</v>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -12633,7 +12633,7 @@
         <v>6</v>
       </c>
       <c r="I151" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
@@ -12795,11 +12795,11 @@
         <v>6</v>
       </c>
       <c r="I153" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K153" t="n">
@@ -12876,7 +12876,7 @@
         <v>6</v>
       </c>
       <c r="I154" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -12957,11 +12957,11 @@
         <v>6</v>
       </c>
       <c r="I155" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K155" t="n">
@@ -13038,7 +13038,7 @@
         <v>6</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>2</v>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
@@ -13373,11 +13373,11 @@
         <v>2</v>
       </c>
       <c r="L160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -13454,7 +13454,7 @@
         <v>2</v>
       </c>
       <c r="L161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>6</v>
       </c>
       <c r="I162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>6</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>6</v>
       </c>
       <c r="I168" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>6</v>
       </c>
       <c r="I169" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
@@ -14102,11 +14102,11 @@
         <v>2</v>
       </c>
       <c r="L169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -14183,11 +14183,11 @@
         <v>2</v>
       </c>
       <c r="L170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -14334,22 +14334,22 @@
         <v>6</v>
       </c>
       <c r="I172" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K172" t="n">
         <v>2</v>
       </c>
       <c r="L172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
@@ -14415,11 +14415,11 @@
         <v>6</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K173" t="n">
@@ -14496,7 +14496,7 @@
         <v>6</v>
       </c>
       <c r="I174" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -14577,22 +14577,22 @@
         <v>6</v>
       </c>
       <c r="I175" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K175" t="n">
         <v>2</v>
       </c>
       <c r="L175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
@@ -14750,11 +14750,11 @@
         <v>2</v>
       </c>
       <c r="L177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -14982,7 +14982,7 @@
         <v>6</v>
       </c>
       <c r="I180" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
         <v>6</v>
       </c>
       <c r="I181" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K181" t="n">
@@ -15387,7 +15387,7 @@
         <v>6</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
@@ -15398,11 +15398,11 @@
         <v>2</v>
       </c>
       <c r="L185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
@@ -15468,7 +15468,7 @@
         <v>6</v>
       </c>
       <c r="I186" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -15479,11 +15479,11 @@
         <v>2</v>
       </c>
       <c r="L186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -15711,7 +15711,7 @@
         <v>6</v>
       </c>
       <c r="I189" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
@@ -15873,11 +15873,11 @@
         <v>6</v>
       </c>
       <c r="I191" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K191" t="n">
@@ -15954,7 +15954,7 @@
         <v>6</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
@@ -16116,11 +16116,11 @@
         <v>6</v>
       </c>
       <c r="I194" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K194" t="n">
@@ -16278,11 +16278,11 @@
         <v>6</v>
       </c>
       <c r="I196" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K196" t="n">
@@ -16359,7 +16359,7 @@
         <v>6</v>
       </c>
       <c r="I197" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
@@ -16370,11 +16370,11 @@
         <v>2</v>
       </c>
       <c r="L197" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
@@ -16521,7 +16521,7 @@
         <v>6</v>
       </c>
       <c r="I199" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
@@ -16602,11 +16602,11 @@
         <v>6</v>
       </c>
       <c r="I200" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K200" t="n">
@@ -16845,11 +16845,11 @@
         <v>6</v>
       </c>
       <c r="I203" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K203" t="n">
@@ -16926,7 +16926,7 @@
         <v>6</v>
       </c>
       <c r="I204" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>6</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J205" t="inlineStr">
         <is>
@@ -17018,11 +17018,11 @@
         <v>2</v>
       </c>
       <c r="L205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
@@ -17169,22 +17169,22 @@
         <v>6</v>
       </c>
       <c r="I207" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K207" t="n">
         <v>2</v>
       </c>
       <c r="L207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
@@ -17412,7 +17412,7 @@
         <v>6</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
@@ -17747,11 +17747,11 @@
         <v>2</v>
       </c>
       <c r="L214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
@@ -17909,11 +17909,11 @@
         <v>2</v>
       </c>
       <c r="L216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
@@ -18141,7 +18141,7 @@
         <v>6</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>
@@ -18152,11 +18152,11 @@
         <v>2</v>
       </c>
       <c r="L219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
@@ -18465,11 +18465,11 @@
         <v>6</v>
       </c>
       <c r="I223" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K223" t="n">
@@ -18627,11 +18627,11 @@
         <v>6</v>
       </c>
       <c r="I225" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K225" t="n">
@@ -18789,7 +18789,7 @@
         <v>6</v>
       </c>
       <c r="I227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J227" t="inlineStr">
         <is>
@@ -18870,11 +18870,11 @@
         <v>6</v>
       </c>
       <c r="I228" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K228" t="n">
@@ -18951,7 +18951,7 @@
         <v>6</v>
       </c>
       <c r="I229" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
@@ -18962,11 +18962,11 @@
         <v>2</v>
       </c>
       <c r="L229" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -19043,11 +19043,11 @@
         <v>2</v>
       </c>
       <c r="L230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -19194,7 +19194,7 @@
         <v>6</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
@@ -19205,11 +19205,11 @@
         <v>2</v>
       </c>
       <c r="L232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>6</v>
       </c>
       <c r="I233" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
@@ -19286,11 +19286,11 @@
         <v>2</v>
       </c>
       <c r="L233" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
@@ -19356,11 +19356,11 @@
         <v>6</v>
       </c>
       <c r="I234" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K234" t="n">
@@ -19599,18 +19599,18 @@
         <v>6</v>
       </c>
       <c r="I237" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K237" t="n">
         <v>2</v>
       </c>
       <c r="L237" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M237" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>6</v>
       </c>
       <c r="I239" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
@@ -19772,11 +19772,11 @@
         <v>2</v>
       </c>
       <c r="L239" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -19842,11 +19842,11 @@
         <v>6</v>
       </c>
       <c r="I240" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K240" t="n">
@@ -20004,7 +20004,7 @@
         <v>6</v>
       </c>
       <c r="I242" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J242" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>2</v>
       </c>
       <c r="L242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
@@ -20085,11 +20085,11 @@
         <v>6</v>
       </c>
       <c r="I243" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K243" t="n">
@@ -20173,7 +20173,7 @@
         <v>2</v>
       </c>
       <c r="L244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M244" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>6</v>
       </c>
       <c r="I245" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J245" t="inlineStr">
         <is>
@@ -20254,11 +20254,11 @@
         <v>2</v>
       </c>
       <c r="L245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
@@ -20405,7 +20405,7 @@
         <v>6</v>
       </c>
       <c r="I247" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J247" t="inlineStr">
         <is>
@@ -20416,11 +20416,11 @@
         <v>2</v>
       </c>
       <c r="L247" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -20578,7 +20578,7 @@
         <v>2</v>
       </c>
       <c r="L249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
@@ -20648,18 +20648,18 @@
         <v>6</v>
       </c>
       <c r="I250" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K250" t="n">
         <v>2</v>
       </c>
       <c r="L250" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M250" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>6</v>
       </c>
       <c r="I251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J251" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>2</v>
       </c>
       <c r="L251" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M251" t="inlineStr">
         <is>
@@ -20810,7 +20810,7 @@
         <v>6</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J252" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>2</v>
       </c>
       <c r="L252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M252" t="inlineStr">
         <is>
@@ -20972,11 +20972,11 @@
         <v>6</v>
       </c>
       <c r="I254" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K254" t="n">
@@ -21053,7 +21053,7 @@
         <v>6</v>
       </c>
       <c r="I255" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J255" t="inlineStr">
         <is>
@@ -21145,11 +21145,11 @@
         <v>2</v>
       </c>
       <c r="L256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
@@ -21215,7 +21215,7 @@
         <v>6</v>
       </c>
       <c r="I257" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
@@ -21226,11 +21226,11 @@
         <v>2</v>
       </c>
       <c r="L257" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
@@ -21296,7 +21296,7 @@
         <v>6</v>
       </c>
       <c r="I258" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J258" t="inlineStr">
         <is>
@@ -21307,11 +21307,11 @@
         <v>2</v>
       </c>
       <c r="L258" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -21458,22 +21458,22 @@
         <v>6</v>
       </c>
       <c r="I260" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K260" t="n">
         <v>2</v>
       </c>
       <c r="L260" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -21539,11 +21539,11 @@
         <v>6</v>
       </c>
       <c r="I261" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K261" t="n">
@@ -21701,22 +21701,22 @@
         <v>6</v>
       </c>
       <c r="I263" t="n">
+        <v>5</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>2</v>
+      </c>
+      <c r="L263" t="n">
         <v>3</v>
       </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K263" t="n">
-        <v>2</v>
-      </c>
-      <c r="L263" t="n">
-        <v>2</v>
-      </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
@@ -21782,18 +21782,18 @@
         <v>6</v>
       </c>
       <c r="I264" t="n">
+        <v>7</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>2</v>
+      </c>
+      <c r="L264" t="n">
         <v>4</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K264" t="n">
-        <v>2</v>
-      </c>
-      <c r="L264" t="n">
-        <v>3</v>
       </c>
       <c r="M264" t="inlineStr">
         <is>
@@ -21863,18 +21863,18 @@
         <v>6</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K265" t="n">
         <v>2</v>
       </c>
       <c r="L265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M265" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>6</v>
       </c>
       <c r="I267" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J267" t="inlineStr">
         <is>
@@ -22036,11 +22036,11 @@
         <v>2</v>
       </c>
       <c r="L267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
@@ -22106,7 +22106,7 @@
         <v>6</v>
       </c>
       <c r="I268" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J268" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>6</v>
       </c>
       <c r="I269" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J269" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>6</v>
       </c>
       <c r="I270" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J270" t="inlineStr">
         <is>
@@ -22430,22 +22430,22 @@
         <v>6</v>
       </c>
       <c r="I272" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J272" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>2</v>
+      </c>
+      <c r="L272" t="n">
+        <v>2</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
           <t>S</t>
-        </is>
-      </c>
-      <c r="K272" t="n">
-        <v>2</v>
-      </c>
-      <c r="L272" t="n">
-        <v>0</v>
-      </c>
-      <c r="M272" t="inlineStr">
-        <is>
-          <t>I</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
@@ -22592,22 +22592,22 @@
         <v>6</v>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K274" t="n">
         <v>2</v>
       </c>
       <c r="L274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
@@ -22754,11 +22754,11 @@
         <v>6</v>
       </c>
       <c r="I276" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K276" t="n">
@@ -22916,7 +22916,7 @@
         <v>6</v>
       </c>
       <c r="I278" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J278" t="inlineStr">
         <is>
@@ -22997,22 +22997,22 @@
         <v>6</v>
       </c>
       <c r="I279" t="n">
+        <v>2</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>2</v>
+      </c>
+      <c r="L279" t="n">
         <v>3</v>
       </c>
-      <c r="J279" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K279" t="n">
-        <v>2</v>
-      </c>
-      <c r="L279" t="n">
-        <v>2</v>
-      </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N279" t="inlineStr">
@@ -23078,7 +23078,7 @@
         <v>6</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J280" t="inlineStr">
         <is>
@@ -23159,22 +23159,22 @@
         <v>6</v>
       </c>
       <c r="I281" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K281" t="n">
         <v>2</v>
       </c>
       <c r="L281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
@@ -23240,18 +23240,18 @@
         <v>6</v>
       </c>
       <c r="I282" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K282" t="n">
         <v>2</v>
       </c>
       <c r="L282" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M282" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>6</v>
       </c>
       <c r="I283" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J283" t="inlineStr">
         <is>
@@ -23402,22 +23402,22 @@
         <v>6</v>
       </c>
       <c r="I284" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K284" t="n">
         <v>2</v>
       </c>
       <c r="L284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
@@ -23564,22 +23564,22 @@
         <v>6</v>
       </c>
       <c r="I286" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K286" t="n">
         <v>2</v>
       </c>
       <c r="L286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
@@ -23645,7 +23645,7 @@
         <v>6</v>
       </c>
       <c r="I287" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J287" t="inlineStr">
         <is>
@@ -23656,11 +23656,11 @@
         <v>2</v>
       </c>
       <c r="L287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N287" t="inlineStr">
@@ -23726,7 +23726,7 @@
         <v>6</v>
       </c>
       <c r="I288" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J288" t="inlineStr">
         <is>
@@ -23737,11 +23737,11 @@
         <v>2</v>
       </c>
       <c r="L288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
@@ -23807,7 +23807,7 @@
         <v>6</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J289" t="inlineStr">
         <is>
@@ -24061,11 +24061,11 @@
         <v>2</v>
       </c>
       <c r="L292" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
@@ -24131,7 +24131,7 @@
         <v>6</v>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J293" t="inlineStr">
         <is>
@@ -24142,11 +24142,11 @@
         <v>2</v>
       </c>
       <c r="L293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
@@ -24212,7 +24212,7 @@
         <v>6</v>
       </c>
       <c r="I294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J294" t="inlineStr">
         <is>
@@ -24223,11 +24223,11 @@
         <v>2</v>
       </c>
       <c r="L294" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
@@ -24374,7 +24374,7 @@
         <v>6</v>
       </c>
       <c r="I296" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J296" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>2</v>
       </c>
       <c r="L296" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M296" t="inlineStr">
         <is>
@@ -24455,11 +24455,11 @@
         <v>6</v>
       </c>
       <c r="I297" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K297" t="n">
@@ -24536,7 +24536,7 @@
         <v>6</v>
       </c>
       <c r="I298" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J298" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>2</v>
       </c>
       <c r="L298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M298" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>6</v>
       </c>
       <c r="I301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J301" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>6</v>
       </c>
       <c r="I302" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J302" t="inlineStr">
         <is>
@@ -24871,11 +24871,11 @@
         <v>2</v>
       </c>
       <c r="L302" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N302" t="inlineStr">
@@ -24941,7 +24941,7 @@
         <v>6</v>
       </c>
       <c r="I303" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J303" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>6</v>
       </c>
       <c r="I304" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J304" t="inlineStr">
         <is>
@@ -25033,11 +25033,11 @@
         <v>2</v>
       </c>
       <c r="L304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
@@ -25114,11 +25114,11 @@
         <v>2</v>
       </c>
       <c r="L305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N305" t="inlineStr">
@@ -25184,7 +25184,7 @@
         <v>6</v>
       </c>
       <c r="I306" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J306" t="inlineStr">
         <is>
@@ -25195,11 +25195,11 @@
         <v>2</v>
       </c>
       <c r="L306" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N306" t="inlineStr">
@@ -25265,7 +25265,7 @@
         <v>6</v>
       </c>
       <c r="I307" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J307" t="inlineStr">
         <is>
@@ -25357,11 +25357,11 @@
         <v>2</v>
       </c>
       <c r="L308" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
@@ -25427,7 +25427,7 @@
         <v>6</v>
       </c>
       <c r="I309" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J309" t="inlineStr">
         <is>
@@ -25508,11 +25508,11 @@
         <v>6</v>
       </c>
       <c r="I310" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K310" t="n">
@@ -25670,22 +25670,22 @@
         <v>6</v>
       </c>
       <c r="I312" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K312" t="n">
         <v>2</v>
       </c>
       <c r="L312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
@@ -25913,22 +25913,22 @@
         <v>6</v>
       </c>
       <c r="I315" t="n">
+        <v>7</v>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K315" t="n">
+        <v>2</v>
+      </c>
+      <c r="L315" t="n">
         <v>4</v>
       </c>
-      <c r="J315" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K315" t="n">
-        <v>2</v>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N315" t="inlineStr">
@@ -25994,7 +25994,7 @@
         <v>6</v>
       </c>
       <c r="I316" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J316" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>6</v>
       </c>
       <c r="I317" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J317" t="inlineStr">
         <is>
@@ -26086,7 +26086,7 @@
         <v>2</v>
       </c>
       <c r="L317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M317" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>6</v>
       </c>
       <c r="I319" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J319" t="inlineStr">
         <is>
@@ -26248,11 +26248,11 @@
         <v>2</v>
       </c>
       <c r="L319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N319" t="inlineStr">
@@ -26410,11 +26410,11 @@
         <v>2</v>
       </c>
       <c r="L321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N321" t="inlineStr">
@@ -26480,18 +26480,18 @@
         <v>6</v>
       </c>
       <c r="I322" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K322" t="n">
         <v>2</v>
       </c>
       <c r="L322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M322" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>6</v>
       </c>
       <c r="I323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J323" t="inlineStr">
         <is>
@@ -26572,11 +26572,11 @@
         <v>2</v>
       </c>
       <c r="L323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N323" t="inlineStr">
@@ -26642,7 +26642,7 @@
         <v>6</v>
       </c>
       <c r="I324" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J324" t="inlineStr">
         <is>
@@ -26804,18 +26804,18 @@
         <v>6</v>
       </c>
       <c r="I326" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K326" t="n">
         <v>2</v>
       </c>
       <c r="L326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M326" t="inlineStr">
         <is>
@@ -26966,11 +26966,11 @@
         <v>6</v>
       </c>
       <c r="I328" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K328" t="n">
@@ -27047,22 +27047,22 @@
         <v>6</v>
       </c>
       <c r="I329" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K329" t="n">
         <v>2</v>
       </c>
       <c r="L329" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
@@ -27209,22 +27209,22 @@
         <v>2</v>
       </c>
       <c r="I331" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K331" t="n">
         <v>2</v>
       </c>
       <c r="L331" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N331" t="inlineStr">
@@ -27290,7 +27290,7 @@
         <v>6</v>
       </c>
       <c r="I332" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J332" t="inlineStr">
         <is>
@@ -27301,11 +27301,11 @@
         <v>2</v>
       </c>
       <c r="L332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N332" t="inlineStr">
@@ -27371,11 +27371,11 @@
         <v>6</v>
       </c>
       <c r="I333" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K333" t="n">
@@ -27463,7 +27463,7 @@
         <v>2</v>
       </c>
       <c r="L334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M334" t="inlineStr">
         <is>
@@ -27533,7 +27533,7 @@
         <v>6</v>
       </c>
       <c r="I335" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J335" t="inlineStr">
         <is>
@@ -27544,11 +27544,11 @@
         <v>2</v>
       </c>
       <c r="L335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N335" t="inlineStr">
@@ -27695,22 +27695,22 @@
         <v>6</v>
       </c>
       <c r="I337" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K337" t="n">
         <v>2</v>
       </c>
       <c r="L337" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N337" t="inlineStr">
@@ -27776,7 +27776,7 @@
         <v>6</v>
       </c>
       <c r="I338" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J338" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>6</v>
       </c>
       <c r="I340" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J340" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>6</v>
       </c>
       <c r="I344" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J344" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>6</v>
       </c>
       <c r="I345" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J345" t="inlineStr">
         <is>
@@ -28354,11 +28354,11 @@
         <v>2</v>
       </c>
       <c r="L345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N345" t="inlineStr">
@@ -28586,7 +28586,7 @@
         <v>6</v>
       </c>
       <c r="I348" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J348" t="inlineStr">
         <is>
@@ -28748,22 +28748,22 @@
         <v>6</v>
       </c>
       <c r="I350" t="n">
+        <v>6</v>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K350" t="n">
+        <v>2</v>
+      </c>
+      <c r="L350" t="n">
         <v>3</v>
       </c>
-      <c r="J350" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K350" t="n">
-        <v>2</v>
-      </c>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N350" t="inlineStr">
@@ -28840,11 +28840,11 @@
         <v>2</v>
       </c>
       <c r="L351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N351" t="inlineStr">
@@ -28910,22 +28910,22 @@
         <v>6</v>
       </c>
       <c r="I352" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K352" t="n">
         <v>2</v>
       </c>
       <c r="L352" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N352" t="inlineStr">
@@ -28991,18 +28991,18 @@
         <v>6</v>
       </c>
       <c r="I353" t="n">
+        <v>3</v>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K353" t="n">
+        <v>2</v>
+      </c>
+      <c r="L353" t="n">
         <v>1</v>
-      </c>
-      <c r="J353" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K353" t="n">
-        <v>2</v>
-      </c>
-      <c r="L353" t="n">
-        <v>0</v>
       </c>
       <c r="M353" t="inlineStr">
         <is>
@@ -29153,7 +29153,7 @@
         <v>6</v>
       </c>
       <c r="I355" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J355" t="inlineStr">
         <is>
@@ -29234,11 +29234,11 @@
         <v>6</v>
       </c>
       <c r="I356" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K356" t="n">
@@ -29315,7 +29315,7 @@
         <v>6</v>
       </c>
       <c r="I357" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J357" t="inlineStr">
         <is>
@@ -29477,7 +29477,7 @@
         <v>6</v>
       </c>
       <c r="I359" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J359" t="inlineStr">
         <is>
@@ -29488,7 +29488,7 @@
         <v>2</v>
       </c>
       <c r="L359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M359" t="inlineStr">
         <is>
@@ -29569,11 +29569,11 @@
         <v>2</v>
       </c>
       <c r="L360" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N360" t="inlineStr">
@@ -29720,7 +29720,7 @@
         <v>6</v>
       </c>
       <c r="I362" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J362" t="inlineStr">
         <is>
@@ -29731,11 +29731,11 @@
         <v>2</v>
       </c>
       <c r="L362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N362" t="inlineStr">
@@ -29893,11 +29893,11 @@
         <v>2</v>
       </c>
       <c r="L364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N364" t="inlineStr">
@@ -29963,18 +29963,18 @@
         <v>6</v>
       </c>
       <c r="I365" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K365" t="n">
         <v>2</v>
       </c>
       <c r="L365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M365" t="inlineStr">
         <is>
@@ -30044,22 +30044,22 @@
         <v>6</v>
       </c>
       <c r="I366" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K366" t="n">
         <v>2</v>
       </c>
       <c r="L366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N366" t="inlineStr">
@@ -30136,7 +30136,7 @@
         <v>2</v>
       </c>
       <c r="L367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M367" t="inlineStr">
         <is>
@@ -30287,11 +30287,11 @@
         <v>6</v>
       </c>
       <c r="I369" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K369" t="n">
@@ -30368,7 +30368,7 @@
         <v>6</v>
       </c>
       <c r="I370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J370" t="inlineStr">
         <is>
@@ -30379,7 +30379,7 @@
         <v>2</v>
       </c>
       <c r="L370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M370" t="inlineStr">
         <is>
@@ -30449,11 +30449,11 @@
         <v>6</v>
       </c>
       <c r="I371" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K371" t="n">
@@ -30692,7 +30692,7 @@
         <v>6</v>
       </c>
       <c r="I374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J374" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>2</v>
       </c>
       <c r="L374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M374" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>6</v>
       </c>
       <c r="I376" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J376" t="inlineStr">
         <is>
@@ -31016,7 +31016,7 @@
         <v>6</v>
       </c>
       <c r="I378" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J378" t="inlineStr">
         <is>
@@ -31097,7 +31097,7 @@
         <v>6</v>
       </c>
       <c r="I379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J379" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>2</v>
       </c>
       <c r="L379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M379" t="inlineStr">
         <is>
@@ -31178,11 +31178,11 @@
         <v>6</v>
       </c>
       <c r="I380" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K380" t="n">
@@ -31421,7 +31421,7 @@
         <v>6</v>
       </c>
       <c r="I383" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J383" t="inlineStr">
         <is>
@@ -31432,11 +31432,11 @@
         <v>2</v>
       </c>
       <c r="L383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N383" t="inlineStr">
@@ -31502,11 +31502,11 @@
         <v>6</v>
       </c>
       <c r="I384" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K384" t="n">
@@ -31594,11 +31594,11 @@
         <v>2</v>
       </c>
       <c r="L385" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N385" t="inlineStr">
@@ -31664,22 +31664,22 @@
         <v>6</v>
       </c>
       <c r="I386" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K386" t="n">
         <v>2</v>
       </c>
       <c r="L386" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N386" t="inlineStr">
@@ -31745,11 +31745,11 @@
         <v>6</v>
       </c>
       <c r="I387" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K387" t="n">
@@ -31826,7 +31826,7 @@
         <v>6</v>
       </c>
       <c r="I388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J388" t="inlineStr">
         <is>
@@ -31837,11 +31837,11 @@
         <v>2</v>
       </c>
       <c r="L388" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N388" t="inlineStr">
@@ -31907,7 +31907,7 @@
         <v>6</v>
       </c>
       <c r="I389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" t="inlineStr">
         <is>
@@ -31918,7 +31918,7 @@
         <v>2</v>
       </c>
       <c r="L389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M389" t="inlineStr">
         <is>
@@ -31988,7 +31988,7 @@
         <v>6</v>
       </c>
       <c r="I390" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J390" t="inlineStr">
         <is>
@@ -32069,7 +32069,7 @@
         <v>6</v>
       </c>
       <c r="I391" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J391" t="inlineStr">
         <is>
@@ -32080,11 +32080,11 @@
         <v>2</v>
       </c>
       <c r="L391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N391" t="inlineStr">
@@ -32150,22 +32150,22 @@
         <v>6</v>
       </c>
       <c r="I392" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K392" t="n">
         <v>2</v>
       </c>
       <c r="L392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N392" t="inlineStr">
@@ -32312,7 +32312,7 @@
         <v>6</v>
       </c>
       <c r="I394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J394" t="inlineStr">
         <is>
@@ -32393,7 +32393,7 @@
         <v>6</v>
       </c>
       <c r="I395" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J395" t="inlineStr">
         <is>
@@ -32404,7 +32404,7 @@
         <v>2</v>
       </c>
       <c r="L395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M395" t="inlineStr">
         <is>
@@ -32555,7 +32555,7 @@
         <v>6</v>
       </c>
       <c r="I397" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J397" t="inlineStr">
         <is>
@@ -32798,7 +32798,7 @@
         <v>6</v>
       </c>
       <c r="I400" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J400" t="inlineStr">
         <is>
@@ -32809,11 +32809,11 @@
         <v>2</v>
       </c>
       <c r="L400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N400" t="inlineStr">
@@ -32879,11 +32879,11 @@
         <v>6</v>
       </c>
       <c r="I401" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K401" t="n">
@@ -33284,22 +33284,22 @@
         <v>6</v>
       </c>
       <c r="I406" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K406" t="n">
         <v>2</v>
       </c>
       <c r="L406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N406" t="inlineStr">
@@ -33457,7 +33457,7 @@
         <v>2</v>
       </c>
       <c r="L408" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M408" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>6</v>
       </c>
       <c r="I409" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J409" t="inlineStr">
         <is>
@@ -33538,11 +33538,11 @@
         <v>2</v>
       </c>
       <c r="L409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N409" t="inlineStr">
@@ -33608,11 +33608,11 @@
         <v>6</v>
       </c>
       <c r="I410" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K410" t="n">
@@ -33689,22 +33689,22 @@
         <v>6</v>
       </c>
       <c r="I411" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K411" t="n">
         <v>2</v>
       </c>
       <c r="L411" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N411" t="inlineStr">
@@ -33770,11 +33770,11 @@
         <v>6</v>
       </c>
       <c r="I412" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K412" t="n">
@@ -34175,7 +34175,7 @@
         <v>6</v>
       </c>
       <c r="I417" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J417" t="inlineStr">
         <is>
@@ -34267,11 +34267,11 @@
         <v>2</v>
       </c>
       <c r="L418" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N418" t="inlineStr">
@@ -34337,7 +34337,7 @@
         <v>6</v>
       </c>
       <c r="I419" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J419" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>6</v>
       </c>
       <c r="I420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J420" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>6</v>
       </c>
       <c r="I422" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J422" t="inlineStr">
         <is>
@@ -34591,11 +34591,11 @@
         <v>2</v>
       </c>
       <c r="L422" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M422" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N422" t="inlineStr">
@@ -34823,7 +34823,7 @@
         <v>6</v>
       </c>
       <c r="I425" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J425" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>6</v>
       </c>
       <c r="I426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J426" t="inlineStr">
         <is>
@@ -35077,11 +35077,11 @@
         <v>2</v>
       </c>
       <c r="L428" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M428" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N428" t="inlineStr">
@@ -35228,22 +35228,22 @@
         <v>6</v>
       </c>
       <c r="I430" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K430" t="n">
         <v>2</v>
       </c>
       <c r="L430" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N430" t="inlineStr">
@@ -35309,7 +35309,7 @@
         <v>6</v>
       </c>
       <c r="I431" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J431" t="inlineStr">
         <is>
@@ -35401,11 +35401,11 @@
         <v>2</v>
       </c>
       <c r="L432" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N432" t="inlineStr">
@@ -35552,22 +35552,22 @@
         <v>6</v>
       </c>
       <c r="I434" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K434" t="n">
         <v>2</v>
       </c>
       <c r="L434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N434" t="inlineStr">
@@ -35714,22 +35714,22 @@
         <v>6</v>
       </c>
       <c r="I436" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K436" t="n">
         <v>2</v>
       </c>
       <c r="L436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M436" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N436" t="inlineStr">
@@ -35876,7 +35876,7 @@
         <v>6</v>
       </c>
       <c r="I438" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J438" t="inlineStr">
         <is>
@@ -35887,11 +35887,11 @@
         <v>2</v>
       </c>
       <c r="L438" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M438" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N438" t="inlineStr">
@@ -35957,22 +35957,22 @@
         <v>6</v>
       </c>
       <c r="I439" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J439" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K439" t="n">
+        <v>2</v>
+      </c>
+      <c r="L439" t="n">
+        <v>2</v>
+      </c>
+      <c r="M439" t="inlineStr">
+        <is>
           <t>S</t>
-        </is>
-      </c>
-      <c r="K439" t="n">
-        <v>2</v>
-      </c>
-      <c r="L439" t="n">
-        <v>0</v>
-      </c>
-      <c r="M439" t="inlineStr">
-        <is>
-          <t>I</t>
         </is>
       </c>
       <c r="N439" t="inlineStr">
@@ -36038,7 +36038,7 @@
         <v>6</v>
       </c>
       <c r="I440" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J440" t="inlineStr">
         <is>
@@ -36049,11 +36049,11 @@
         <v>2</v>
       </c>
       <c r="L440" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M440" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N440" t="inlineStr">
@@ -36119,7 +36119,7 @@
         <v>6</v>
       </c>
       <c r="I441" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J441" t="inlineStr">
         <is>
@@ -36130,11 +36130,11 @@
         <v>2</v>
       </c>
       <c r="L441" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M441" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N441" t="inlineStr">
@@ -36200,7 +36200,7 @@
         <v>6</v>
       </c>
       <c r="I442" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J442" t="inlineStr">
         <is>
@@ -36211,11 +36211,11 @@
         <v>2</v>
       </c>
       <c r="L442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M442" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N442" t="inlineStr">
@@ -36362,7 +36362,7 @@
         <v>6</v>
       </c>
       <c r="I444" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J444" t="inlineStr">
         <is>
@@ -36524,7 +36524,7 @@
         <v>6</v>
       </c>
       <c r="I446" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J446" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>6</v>
       </c>
       <c r="I451" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J451" t="inlineStr">
         <is>
@@ -36940,11 +36940,11 @@
         <v>2</v>
       </c>
       <c r="L451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N451" t="inlineStr">
@@ -37010,11 +37010,11 @@
         <v>6</v>
       </c>
       <c r="I452" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K452" t="n">
@@ -37091,7 +37091,7 @@
         <v>6</v>
       </c>
       <c r="I453" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J453" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>2</v>
       </c>
       <c r="L453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M453" t="inlineStr">
         <is>
@@ -37253,11 +37253,11 @@
         <v>6</v>
       </c>
       <c r="I455" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K455" t="n">
@@ -37334,22 +37334,22 @@
         <v>6</v>
       </c>
       <c r="I456" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K456" t="n">
         <v>2</v>
       </c>
       <c r="L456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M456" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N456" t="inlineStr">
@@ -37415,7 +37415,7 @@
         <v>6</v>
       </c>
       <c r="I457" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J457" t="inlineStr">
         <is>
@@ -37426,11 +37426,11 @@
         <v>2</v>
       </c>
       <c r="L457" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M457" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N457" t="inlineStr">
@@ -37496,7 +37496,7 @@
         <v>6</v>
       </c>
       <c r="I458" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J458" t="inlineStr">
         <is>
@@ -37507,11 +37507,11 @@
         <v>2</v>
       </c>
       <c r="L458" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M458" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N458" t="inlineStr">
@@ -37577,7 +37577,7 @@
         <v>6</v>
       </c>
       <c r="I459" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J459" t="inlineStr">
         <is>
@@ -37588,11 +37588,11 @@
         <v>2</v>
       </c>
       <c r="L459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M459" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N459" t="inlineStr">
@@ -37820,7 +37820,7 @@
         <v>6</v>
       </c>
       <c r="I462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J462" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>2</v>
       </c>
       <c r="L462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M462" t="inlineStr">
         <is>
@@ -37901,11 +37901,11 @@
         <v>6</v>
       </c>
       <c r="I463" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K463" t="n">
@@ -38236,11 +38236,11 @@
         <v>2</v>
       </c>
       <c r="L467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M467" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N467" t="inlineStr">
@@ -38468,11 +38468,11 @@
         <v>6</v>
       </c>
       <c r="I470" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K470" t="n">
@@ -38549,7 +38549,7 @@
         <v>6</v>
       </c>
       <c r="I471" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J471" t="inlineStr">
         <is>
@@ -38560,11 +38560,11 @@
         <v>2</v>
       </c>
       <c r="L471" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N471" t="inlineStr">
@@ -38630,7 +38630,7 @@
         <v>6</v>
       </c>
       <c r="I472" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J472" t="inlineStr">
         <is>
@@ -38641,11 +38641,11 @@
         <v>2</v>
       </c>
       <c r="L472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M472" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N472" t="inlineStr">
@@ -38711,11 +38711,11 @@
         <v>6</v>
       </c>
       <c r="I473" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K473" t="n">
@@ -38803,7 +38803,7 @@
         <v>2</v>
       </c>
       <c r="L474" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M474" t="inlineStr">
         <is>
@@ -39197,22 +39197,22 @@
         <v>6</v>
       </c>
       <c r="I479" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K479" t="n">
         <v>2</v>
       </c>
       <c r="L479" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M479" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N479" t="inlineStr">
@@ -39278,7 +39278,7 @@
         <v>6</v>
       </c>
       <c r="I480" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J480" t="inlineStr">
         <is>
@@ -39440,7 +39440,7 @@
         <v>6</v>
       </c>
       <c r="I482" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J482" t="inlineStr">
         <is>
@@ -39521,7 +39521,7 @@
         <v>6</v>
       </c>
       <c r="I483" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J483" t="inlineStr">
         <is>
@@ -39683,22 +39683,22 @@
         <v>6</v>
       </c>
       <c r="I485" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K485" t="n">
         <v>2</v>
       </c>
       <c r="L485" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M485" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N485" t="inlineStr">
@@ -40007,7 +40007,7 @@
         <v>6</v>
       </c>
       <c r="I489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J489" t="inlineStr">
         <is>
@@ -40018,11 +40018,11 @@
         <v>2</v>
       </c>
       <c r="L489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M489" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N489" t="inlineStr">
@@ -40250,11 +40250,11 @@
         <v>6</v>
       </c>
       <c r="I492" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K492" t="n">
@@ -40412,7 +40412,7 @@
         <v>6</v>
       </c>
       <c r="I494" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J494" t="inlineStr">
         <is>
@@ -40423,7 +40423,7 @@
         <v>2</v>
       </c>
       <c r="L494" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M494" t="inlineStr">
         <is>
@@ -40493,11 +40493,11 @@
         <v>6</v>
       </c>
       <c r="I495" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K495" t="n">
@@ -40574,7 +40574,7 @@
         <v>6</v>
       </c>
       <c r="I496" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J496" t="inlineStr">
         <is>
@@ -40666,11 +40666,11 @@
         <v>2</v>
       </c>
       <c r="L497" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M497" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N497" t="inlineStr">
@@ -40736,22 +40736,22 @@
         <v>6</v>
       </c>
       <c r="I498" t="n">
+        <v>6</v>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K498" t="n">
+        <v>2</v>
+      </c>
+      <c r="L498" t="n">
         <v>4</v>
       </c>
-      <c r="J498" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K498" t="n">
-        <v>2</v>
-      </c>
-      <c r="L498" t="n">
-        <v>2</v>
-      </c>
       <c r="M498" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N498" t="inlineStr">
@@ -40979,7 +40979,7 @@
         <v>6</v>
       </c>
       <c r="I501" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J501" t="inlineStr">
         <is>
@@ -40990,11 +40990,11 @@
         <v>2</v>
       </c>
       <c r="L501" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M501" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N501" t="inlineStr">
@@ -41141,11 +41141,11 @@
         <v>6</v>
       </c>
       <c r="I503" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K503" t="n">
@@ -41384,7 +41384,7 @@
         <v>6</v>
       </c>
       <c r="I506" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J506" t="inlineStr">
         <is>
@@ -41546,7 +41546,7 @@
         <v>6</v>
       </c>
       <c r="I508" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J508" t="inlineStr">
         <is>
@@ -41557,11 +41557,11 @@
         <v>2</v>
       </c>
       <c r="L508" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M508" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N508" t="inlineStr">
@@ -41785,18 +41785,18 @@
         <v>6</v>
       </c>
       <c r="I511" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K511" t="n">
         <v>2</v>
       </c>
       <c r="L511" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M511" t="inlineStr">
         <is>
@@ -41866,7 +41866,7 @@
         <v>6</v>
       </c>
       <c r="I512" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J512" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2346,11 +2346,11 @@
         <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -2681,11 +2681,11 @@
         <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -3318,11 +3318,11 @@
         <v>6</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K36" t="n">
@@ -3480,22 +3480,22 @@
         <v>6</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
           <t>S</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>2</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>I</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3885,11 +3885,11 @@
         <v>6</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -4047,11 +4047,11 @@
         <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -4290,7 +4290,7 @@
         <v>6</v>
       </c>
       <c r="I48" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>2</v>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
         <v>6</v>
       </c>
       <c r="I60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K60" t="n">
@@ -6963,22 +6963,22 @@
         <v>6</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K81" t="n">
         <v>2</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -7368,7 +7368,7 @@
         <v>6</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -7379,11 +7379,11 @@
         <v>2</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -7449,7 +7449,7 @@
         <v>6</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7460,11 +7460,11 @@
         <v>2</v>
       </c>
       <c r="L87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -7854,22 +7854,22 @@
         <v>6</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K92" t="n">
         <v>2</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -8016,7 +8016,7 @@
         <v>6</v>
       </c>
       <c r="I94" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>6</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -8270,11 +8270,11 @@
         <v>2</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -9161,11 +9161,11 @@
         <v>2</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -9636,7 +9636,7 @@
         <v>6</v>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>6</v>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -10284,22 +10284,22 @@
         <v>6</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K122" t="n">
         <v>2</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -10619,11 +10619,11 @@
         <v>2</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -11013,11 +11013,11 @@
         <v>6</v>
       </c>
       <c r="I131" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K131" t="n">
@@ -11499,7 +11499,7 @@
         <v>6</v>
       </c>
       <c r="I137" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>6</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -11661,11 +11661,11 @@
         <v>6</v>
       </c>
       <c r="I139" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K139" t="n">
@@ -11823,7 +11823,7 @@
         <v>6</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>2</v>
       </c>
       <c r="L141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>6</v>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
@@ -15641,11 +15641,11 @@
         <v>2</v>
       </c>
       <c r="L188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -16035,11 +16035,11 @@
         <v>6</v>
       </c>
       <c r="I193" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K193" t="n">
@@ -16856,7 +16856,7 @@
         <v>2</v>
       </c>
       <c r="L203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>6</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>2</v>
       </c>
       <c r="L206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>6</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J209" t="inlineStr">
         <is>
@@ -17342,11 +17342,11 @@
         <v>2</v>
       </c>
       <c r="L209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -17412,11 +17412,11 @@
         <v>6</v>
       </c>
       <c r="I210" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K210" t="n">
@@ -17655,18 +17655,18 @@
         <v>6</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K213" t="n">
         <v>2</v>
       </c>
       <c r="L213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
@@ -17817,22 +17817,22 @@
         <v>6</v>
       </c>
       <c r="I215" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K215" t="n">
         <v>2</v>
       </c>
       <c r="L215" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -18141,7 +18141,7 @@
         <v>6</v>
       </c>
       <c r="I219" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>
@@ -18708,11 +18708,11 @@
         <v>6</v>
       </c>
       <c r="I226" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K226" t="n">
@@ -19113,22 +19113,22 @@
         <v>6</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K231" t="n">
         <v>2</v>
       </c>
       <c r="L231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
@@ -19437,7 +19437,7 @@
         <v>6</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>6</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J236" t="inlineStr">
         <is>
@@ -19529,11 +19529,11 @@
         <v>2</v>
       </c>
       <c r="L236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
@@ -19923,7 +19923,7 @@
         <v>6</v>
       </c>
       <c r="I241" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J241" t="inlineStr">
         <is>
@@ -20497,11 +20497,11 @@
         <v>2</v>
       </c>
       <c r="L248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -20567,7 +20567,7 @@
         <v>6</v>
       </c>
       <c r="I249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J249" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>6</v>
       </c>
       <c r="I251" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J251" t="inlineStr">
         <is>
@@ -20821,11 +20821,11 @@
         <v>2</v>
       </c>
       <c r="L252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
@@ -20891,7 +20891,7 @@
         <v>6</v>
       </c>
       <c r="I253" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J253" t="inlineStr">
         <is>
@@ -20902,11 +20902,11 @@
         <v>2</v>
       </c>
       <c r="L253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
@@ -20972,22 +20972,22 @@
         <v>6</v>
       </c>
       <c r="I254" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K254" t="n">
         <v>2</v>
       </c>
       <c r="L254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -21053,11 +21053,11 @@
         <v>6</v>
       </c>
       <c r="I255" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K255" t="n">
@@ -21620,7 +21620,7 @@
         <v>6</v>
       </c>
       <c r="I262" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
@@ -21874,11 +21874,11 @@
         <v>2</v>
       </c>
       <c r="L265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
@@ -22025,11 +22025,11 @@
         <v>6</v>
       </c>
       <c r="I267" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K267" t="n">
@@ -22187,7 +22187,7 @@
         <v>6</v>
       </c>
       <c r="I269" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J269" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>6</v>
       </c>
       <c r="I275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J275" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>6</v>
       </c>
       <c r="I278" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J278" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>6</v>
       </c>
       <c r="I288" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J288" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>6</v>
       </c>
       <c r="I293" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J293" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>6</v>
       </c>
       <c r="I294" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J294" t="inlineStr">
         <is>
@@ -24223,11 +24223,11 @@
         <v>2</v>
       </c>
       <c r="L294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
@@ -24860,7 +24860,7 @@
         <v>6</v>
       </c>
       <c r="I302" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J302" t="inlineStr">
         <is>
@@ -25589,7 +25589,7 @@
         <v>6</v>
       </c>
       <c r="I311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J311" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>2</v>
       </c>
       <c r="L311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M311" t="inlineStr">
         <is>
@@ -25670,11 +25670,11 @@
         <v>6</v>
       </c>
       <c r="I312" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K312" t="n">
@@ -25751,22 +25751,22 @@
         <v>6</v>
       </c>
       <c r="I313" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K313" t="n">
         <v>2</v>
       </c>
       <c r="L313" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
@@ -26318,7 +26318,7 @@
         <v>6</v>
       </c>
       <c r="I320" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J320" t="inlineStr">
         <is>
@@ -26480,7 +26480,7 @@
         <v>6</v>
       </c>
       <c r="I322" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J322" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>6</v>
       </c>
       <c r="I324" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J324" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>2</v>
       </c>
       <c r="L324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M324" t="inlineStr">
         <is>
@@ -26723,7 +26723,7 @@
         <v>6</v>
       </c>
       <c r="I325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J325" t="inlineStr">
         <is>
@@ -26734,11 +26734,11 @@
         <v>2</v>
       </c>
       <c r="L325" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N325" t="inlineStr">
@@ -27857,7 +27857,7 @@
         <v>6</v>
       </c>
       <c r="I339" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J339" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>2</v>
       </c>
       <c r="L339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M339" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>6</v>
       </c>
       <c r="I340" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J340" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>6</v>
       </c>
       <c r="I362" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J362" t="inlineStr">
         <is>
@@ -29963,22 +29963,22 @@
         <v>6</v>
       </c>
       <c r="I365" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J365" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K365" t="n">
+        <v>2</v>
+      </c>
+      <c r="L365" t="n">
+        <v>2</v>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
           <t>S</t>
-        </is>
-      </c>
-      <c r="K365" t="n">
-        <v>2</v>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr">
-        <is>
-          <t>I</t>
         </is>
       </c>
       <c r="N365" t="inlineStr">
@@ -30055,11 +30055,11 @@
         <v>2</v>
       </c>
       <c r="L366" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N366" t="inlineStr">
@@ -30449,7 +30449,7 @@
         <v>6</v>
       </c>
       <c r="I371" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J371" t="inlineStr">
         <is>
@@ -30460,7 +30460,7 @@
         <v>2</v>
       </c>
       <c r="L371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M371" t="inlineStr">
         <is>
@@ -30622,11 +30622,11 @@
         <v>2</v>
       </c>
       <c r="L373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N373" t="inlineStr">
@@ -30946,11 +30946,11 @@
         <v>2</v>
       </c>
       <c r="L377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N377" t="inlineStr">
@@ -31907,7 +31907,7 @@
         <v>6</v>
       </c>
       <c r="I389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J389" t="inlineStr">
         <is>
@@ -32393,7 +32393,7 @@
         <v>6</v>
       </c>
       <c r="I395" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J395" t="inlineStr">
         <is>
@@ -32404,11 +32404,11 @@
         <v>2</v>
       </c>
       <c r="L395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N395" t="inlineStr">
@@ -33122,7 +33122,7 @@
         <v>6</v>
       </c>
       <c r="I404" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J404" t="inlineStr">
         <is>
@@ -33133,11 +33133,11 @@
         <v>2</v>
       </c>
       <c r="L404" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N404" t="inlineStr">
@@ -33284,11 +33284,11 @@
         <v>6</v>
       </c>
       <c r="I406" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K406" t="n">
@@ -33527,7 +33527,7 @@
         <v>6</v>
       </c>
       <c r="I409" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J409" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>6</v>
       </c>
       <c r="I413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J413" t="inlineStr">
         <is>
@@ -33862,11 +33862,11 @@
         <v>2</v>
       </c>
       <c r="L413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N413" t="inlineStr">
@@ -34094,11 +34094,11 @@
         <v>6</v>
       </c>
       <c r="I416" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K416" t="n">
@@ -34985,7 +34985,7 @@
         <v>6</v>
       </c>
       <c r="I427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J427" t="inlineStr">
         <is>
@@ -35633,7 +35633,7 @@
         <v>6</v>
       </c>
       <c r="I435" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J435" t="inlineStr">
         <is>
@@ -35644,11 +35644,11 @@
         <v>2</v>
       </c>
       <c r="L435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M435" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N435" t="inlineStr">
@@ -35957,7 +35957,7 @@
         <v>6</v>
       </c>
       <c r="I439" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J439" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>6</v>
       </c>
       <c r="I443" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J443" t="inlineStr">
         <is>
@@ -36292,7 +36292,7 @@
         <v>2</v>
       </c>
       <c r="L443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M443" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>6</v>
       </c>
       <c r="I451" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J451" t="inlineStr">
         <is>
@@ -36940,11 +36940,11 @@
         <v>2</v>
       </c>
       <c r="L451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>I</t>
         </is>
       </c>
       <c r="N451" t="inlineStr">
@@ -38144,22 +38144,22 @@
         <v>6</v>
       </c>
       <c r="I466" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K466" t="n">
         <v>2</v>
       </c>
       <c r="L466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M466" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N466" t="inlineStr">
@@ -38398,11 +38398,11 @@
         <v>2</v>
       </c>
       <c r="L469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M469" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N469" t="inlineStr">
@@ -39127,7 +39127,7 @@
         <v>2</v>
       </c>
       <c r="L478" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M478" t="inlineStr">
         <is>
@@ -39289,11 +39289,11 @@
         <v>2</v>
       </c>
       <c r="L480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M480" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N480" t="inlineStr">
@@ -40007,7 +40007,7 @@
         <v>6</v>
       </c>
       <c r="I489" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J489" t="inlineStr">
         <is>
@@ -40169,7 +40169,7 @@
         <v>6</v>
       </c>
       <c r="I491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J491" t="inlineStr">
         <is>
@@ -41395,11 +41395,11 @@
         <v>2</v>
       </c>
       <c r="L506" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M506" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N506" t="inlineStr">
@@ -41465,7 +41465,7 @@
         <v>6</v>
       </c>
       <c r="I507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J507" t="inlineStr">
         <is>
@@ -41476,7 +41476,7 @@
         <v>2</v>
       </c>
       <c r="L507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M507" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -1698,18 +1698,18 @@
         <v>6</v>
       </c>
       <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
         <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -888,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -899,11 +899,11 @@
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1536,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -3491,11 +3491,11 @@
         <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -8270,7 +8270,7 @@
         <v>2</v>
       </c>
       <c r="L97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -8432,11 +8432,11 @@
         <v>2</v>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -9647,11 +9647,11 @@
         <v>2</v>
       </c>
       <c r="L114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -10770,7 +10770,7 @@
         <v>6</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>2</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>6</v>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>6</v>
       </c>
       <c r="I168" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>6</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>6</v>
       </c>
       <c r="I239" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
@@ -22025,11 +22025,11 @@
         <v>6</v>
       </c>
       <c r="I267" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>I</t>
         </is>
       </c>
       <c r="K267" t="n">
@@ -27938,11 +27938,11 @@
         <v>6</v>
       </c>
       <c r="I340" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K340" t="n">
@@ -29801,7 +29801,7 @@
         <v>6</v>
       </c>
       <c r="I363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J363" t="inlineStr">
         <is>
@@ -29812,11 +29812,11 @@
         <v>2</v>
       </c>
       <c r="L363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N363" t="inlineStr">
@@ -30125,22 +30125,22 @@
         <v>6</v>
       </c>
       <c r="I367" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K367" t="n">
         <v>2</v>
       </c>
       <c r="L367" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N367" t="inlineStr">
@@ -30530,7 +30530,7 @@
         <v>6</v>
       </c>
       <c r="I372" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J372" t="inlineStr">
         <is>
@@ -30541,11 +30541,11 @@
         <v>2</v>
       </c>
       <c r="L372" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N372" t="inlineStr">
@@ -40412,7 +40412,7 @@
         <v>6</v>
       </c>
       <c r="I494" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J494" t="inlineStr">
         <is>
@@ -41476,11 +41476,11 @@
         <v>2</v>
       </c>
       <c r="L507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M507" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N507" t="inlineStr">

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -807,11 +807,11 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -888,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>6</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -7692,22 +7692,22 @@
         <v>6</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K90" t="n">
         <v>2</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -11834,11 +11834,11 @@
         <v>2</v>
       </c>
       <c r="L141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -17655,7 +17655,7 @@
         <v>6</v>
       </c>
       <c r="I213" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
@@ -19275,11 +19275,11 @@
         <v>6</v>
       </c>
       <c r="I233" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K233" t="n">
@@ -24860,7 +24860,7 @@
         <v>6</v>
       </c>
       <c r="I302" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J302" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>2</v>
       </c>
       <c r="L315" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M315" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>6</v>
       </c>
       <c r="I318" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J318" t="inlineStr">
         <is>
@@ -26167,11 +26167,11 @@
         <v>2</v>
       </c>
       <c r="L318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
@@ -31097,7 +31097,7 @@
         <v>6</v>
       </c>
       <c r="I379" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J379" t="inlineStr">
         <is>
@@ -34834,11 +34834,11 @@
         <v>2</v>
       </c>
       <c r="L425" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N425" t="inlineStr">
@@ -34996,11 +34996,11 @@
         <v>2</v>
       </c>
       <c r="L427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M427" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N427" t="inlineStr">
@@ -36281,7 +36281,7 @@
         <v>6</v>
       </c>
       <c r="I443" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J443" t="inlineStr">
         <is>
@@ -36292,11 +36292,11 @@
         <v>2</v>
       </c>
       <c r="L443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N443" t="inlineStr">
@@ -38873,7 +38873,7 @@
         <v>6</v>
       </c>
       <c r="I475" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J475" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -1790,11 +1790,11 @@
         <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5030,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>6</v>
       </c>
       <c r="I58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -10770,11 +10770,11 @@
         <v>6</v>
       </c>
       <c r="I128" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K128" t="n">
@@ -24050,22 +24050,22 @@
         <v>6</v>
       </c>
       <c r="I292" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K292" t="n">
         <v>2</v>
       </c>
       <c r="L292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
@@ -25184,7 +25184,7 @@
         <v>6</v>
       </c>
       <c r="I306" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J306" t="inlineStr">
         <is>
@@ -31988,7 +31988,7 @@
         <v>6</v>
       </c>
       <c r="I390" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J390" t="inlineStr">
         <is>
@@ -38387,11 +38387,11 @@
         <v>6</v>
       </c>
       <c r="I469" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K469" t="n">
@@ -41546,7 +41546,7 @@
         <v>6</v>
       </c>
       <c r="I508" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J508" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -4371,7 +4371,7 @@
         <v>6</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
         <v>2</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -12876,7 +12876,7 @@
         <v>6</v>
       </c>
       <c r="I154" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>2</v>
       </c>
       <c r="L154" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
@@ -13119,18 +13119,18 @@
         <v>6</v>
       </c>
       <c r="I157" t="n">
+        <v>2</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>2</v>
+      </c>
+      <c r="L157" t="n">
         <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="K157" t="n">
-        <v>2</v>
-      </c>
-      <c r="L157" t="n">
-        <v>0</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>6</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>6</v>
       </c>
       <c r="I266" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J266" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>6</v>
       </c>
       <c r="I389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J389" t="inlineStr">
         <is>
@@ -31918,11 +31918,11 @@
         <v>2</v>
       </c>
       <c r="L389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N389" t="inlineStr">
@@ -36362,7 +36362,7 @@
         <v>6</v>
       </c>
       <c r="I444" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J444" t="inlineStr">
         <is>
@@ -38549,7 +38549,7 @@
         <v>6</v>
       </c>
       <c r="I471" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J471" t="inlineStr">
         <is>
@@ -40412,7 +40412,7 @@
         <v>6</v>
       </c>
       <c r="I494" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J494" t="inlineStr">
         <is>
@@ -41060,7 +41060,7 @@
         <v>6</v>
       </c>
       <c r="I502" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J502" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -3885,11 +3885,11 @@
         <v>6</v>
       </c>
       <c r="I43" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -6477,7 +6477,7 @@
         <v>6</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6488,11 +6488,11 @@
         <v>2</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -7854,11 +7854,11 @@
         <v>6</v>
       </c>
       <c r="I92" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K92" t="n">
@@ -8178,7 +8178,7 @@
         <v>6</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>2</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -10770,22 +10770,22 @@
         <v>6</v>
       </c>
       <c r="I128" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>2</v>
+      </c>
+      <c r="L128" t="n">
+        <v>2</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
           <t>S</t>
-        </is>
-      </c>
-      <c r="K128" t="n">
-        <v>2</v>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>I</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -10851,7 +10851,7 @@
         <v>6</v>
       </c>
       <c r="I129" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -10862,11 +10862,11 @@
         <v>2</v>
       </c>
       <c r="L129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -11175,7 +11175,7 @@
         <v>6</v>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>6</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>2</v>
       </c>
       <c r="L167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
@@ -14496,11 +14496,11 @@
         <v>6</v>
       </c>
       <c r="I174" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K174" t="n">
@@ -21226,11 +21226,11 @@
         <v>2</v>
       </c>
       <c r="L257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
@@ -21944,11 +21944,11 @@
         <v>6</v>
       </c>
       <c r="I266" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K266" t="n">
@@ -29558,7 +29558,7 @@
         <v>6</v>
       </c>
       <c r="I360" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J360" t="inlineStr">
         <is>
@@ -32960,7 +32960,7 @@
         <v>6</v>
       </c>
       <c r="I402" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J402" t="inlineStr">
         <is>
@@ -35401,11 +35401,11 @@
         <v>2</v>
       </c>
       <c r="L432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N432" t="inlineStr">
@@ -36281,7 +36281,7 @@
         <v>6</v>
       </c>
       <c r="I443" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J443" t="inlineStr">
         <is>
@@ -37172,7 +37172,7 @@
         <v>6</v>
       </c>
       <c r="I454" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J454" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>2</v>
       </c>
       <c r="L454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M454" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -4290,7 +4290,7 @@
         <v>6</v>
       </c>
       <c r="I48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>6</v>
       </c>
       <c r="I239" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
@@ -19772,11 +19772,11 @@
         <v>2</v>
       </c>
       <c r="L239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="L247" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         <v>6</v>
       </c>
       <c r="I348" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J348" t="inlineStr">
         <is>
@@ -40169,7 +40169,7 @@
         <v>6</v>
       </c>
       <c r="I491" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J491" t="inlineStr">
         <is>
@@ -40180,11 +40180,11 @@
         <v>2</v>
       </c>
       <c r="L491" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M491" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
       <c r="N491" t="inlineStr">

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -8097,7 +8097,7 @@
         <v>6</v>
       </c>
       <c r="I95" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>6</v>
       </c>
       <c r="I247" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J247" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>2</v>
       </c>
       <c r="L255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
@@ -21782,11 +21782,11 @@
         <v>6</v>
       </c>
       <c r="I264" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K264" t="n">
@@ -24709,7 +24709,7 @@
         <v>2</v>
       </c>
       <c r="L300" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M300" t="inlineStr">
         <is>
@@ -27220,11 +27220,11 @@
         <v>2</v>
       </c>
       <c r="L331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N331" t="inlineStr">
@@ -32474,7 +32474,7 @@
         <v>6</v>
       </c>
       <c r="I396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J396" t="inlineStr">
         <is>
@@ -32485,11 +32485,11 @@
         <v>2</v>
       </c>
       <c r="L396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N396" t="inlineStr">
@@ -36362,7 +36362,7 @@
         <v>6</v>
       </c>
       <c r="I444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J444" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -10365,7 +10365,7 @@
         <v>6</v>
       </c>
       <c r="I123" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
@@ -10376,11 +10376,11 @@
         <v>2</v>
       </c>
       <c r="L123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -13778,7 +13778,7 @@
         <v>2</v>
       </c>
       <c r="L165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>6</v>
       </c>
       <c r="I176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>6</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
@@ -24050,11 +24050,11 @@
         <v>6</v>
       </c>
       <c r="I292" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>I</t>
         </is>
       </c>
       <c r="K292" t="n">
@@ -25357,11 +25357,11 @@
         <v>2</v>
       </c>
       <c r="L308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
@@ -27938,11 +27938,11 @@
         <v>6</v>
       </c>
       <c r="I340" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>I</t>
         </is>
       </c>
       <c r="K340" t="n">
@@ -29963,11 +29963,11 @@
         <v>6</v>
       </c>
       <c r="I365" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K365" t="n">
@@ -30125,7 +30125,7 @@
         <v>6</v>
       </c>
       <c r="I367" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J367" t="inlineStr">
         <is>
@@ -30136,11 +30136,11 @@
         <v>2</v>
       </c>
       <c r="L367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N367" t="inlineStr">
@@ -37750,7 +37750,7 @@
         <v>2</v>
       </c>
       <c r="L461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M461" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -13848,22 +13848,22 @@
         <v>6</v>
       </c>
       <c r="I166" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K166" t="n">
         <v>2</v>
       </c>
       <c r="L166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -15225,11 +15225,11 @@
         <v>6</v>
       </c>
       <c r="I183" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K183" t="n">
@@ -25913,7 +25913,7 @@
         <v>6</v>
       </c>
       <c r="I315" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J315" t="inlineStr">
         <is>
@@ -37010,7 +37010,7 @@
         <v>6</v>
       </c>
       <c r="I452" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J452" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -26653,11 +26653,11 @@
         <v>2</v>
       </c>
       <c r="L324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N324" t="inlineStr">
@@ -40412,7 +40412,7 @@
         <v>6</v>
       </c>
       <c r="I494" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J494" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -1698,7 +1698,7 @@
         <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -6083,11 +6083,11 @@
         <v>2</v>
       </c>
       <c r="L70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>I</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -15479,11 +15479,11 @@
         <v>2</v>
       </c>
       <c r="L186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -19610,7 +19610,7 @@
         <v>2</v>
       </c>
       <c r="L237" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M237" t="inlineStr">
         <is>
@@ -40655,7 +40655,7 @@
         <v>6</v>
       </c>
       <c r="I497" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J497" t="inlineStr">
         <is>
@@ -40666,7 +40666,7 @@
         <v>2</v>
       </c>
       <c r="L497" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M497" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -1061,11 +1061,11 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -7946,11 +7946,11 @@
         <v>2</v>
       </c>
       <c r="L93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>I</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -14820,7 +14820,7 @@
         <v>6</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>6</v>
       </c>
       <c r="I247" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J247" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -4290,7 +4290,7 @@
         <v>6</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>4034 W 56TH ST Chicago, IL 60629</t>
+          <t>5437 W 64TH PL Chicago, IL 60638-5681</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -32717,7 +32717,7 @@
         <v>6</v>
       </c>
       <c r="I399" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J399" t="inlineStr">
         <is>
@@ -32728,11 +32728,11 @@
         <v>2</v>
       </c>
       <c r="L399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N399" t="inlineStr">
@@ -40412,7 +40412,7 @@
         <v>6</v>
       </c>
       <c r="I494" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J494" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -2022,7 +2022,7 @@
         <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>2</v>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>2</v>
       </c>
       <c r="L180" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
@@ -17099,11 +17099,11 @@
         <v>2</v>
       </c>
       <c r="L206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
@@ -17655,7 +17655,7 @@
         <v>6</v>
       </c>
       <c r="I213" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>6</v>
       </c>
       <c r="I239" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>6</v>
       </c>
       <c r="I304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J304" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>6</v>
       </c>
       <c r="I316" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J316" t="inlineStr">
         <is>
@@ -31745,7 +31745,7 @@
         <v>6</v>
       </c>
       <c r="I387" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J387" t="inlineStr">
         <is>
@@ -37750,11 +37750,11 @@
         <v>2</v>
       </c>
       <c r="L461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M461" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N461" t="inlineStr">
@@ -37982,7 +37982,7 @@
         <v>6</v>
       </c>
       <c r="I464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J464" t="inlineStr">
         <is>
@@ -37993,7 +37993,7 @@
         <v>2</v>
       </c>
       <c r="L464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M464" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>2</v>
       </c>
       <c r="L490" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M490" t="inlineStr">
         <is>
@@ -41071,11 +41071,11 @@
         <v>2</v>
       </c>
       <c r="L502" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M502" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N502" t="inlineStr">
@@ -41704,11 +41704,11 @@
         <v>6</v>
       </c>
       <c r="I510" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K510" t="n">

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -3491,11 +3491,11 @@
         <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -4220,11 +4220,11 @@
         <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>I</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -32717,7 +32717,7 @@
         <v>6</v>
       </c>
       <c r="I399" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J399" t="inlineStr">
         <is>
@@ -33446,11 +33446,11 @@
         <v>6</v>
       </c>
       <c r="I408" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>I</t>
         </is>
       </c>
       <c r="K408" t="n">
@@ -37183,11 +37183,11 @@
         <v>2</v>
       </c>
       <c r="L454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M454" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N454" t="inlineStr">

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -4949,11 +4949,11 @@
         <v>2</v>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>I</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -17817,11 +17817,11 @@
         <v>6</v>
       </c>
       <c r="I215" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K215" t="n">
@@ -38155,11 +38155,11 @@
         <v>2</v>
       </c>
       <c r="L466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M466" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>I</t>
         </is>
       </c>
       <c r="N466" t="inlineStr">

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -2670,7 +2670,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -6558,11 +6558,11 @@
         <v>6</v>
       </c>
       <c r="I76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K76" t="n">
@@ -11823,7 +11823,7 @@
         <v>6</v>
       </c>
       <c r="I141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>6</v>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>6</v>
       </c>
       <c r="I206" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>6</v>
       </c>
       <c r="I232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         <v>2</v>
       </c>
       <c r="L241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M241" t="inlineStr">
         <is>
@@ -21712,11 +21712,11 @@
         <v>2</v>
       </c>
       <c r="L263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
@@ -24617,11 +24617,11 @@
         <v>6</v>
       </c>
       <c r="I299" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K299" t="n">
@@ -27452,7 +27452,7 @@
         <v>6</v>
       </c>
       <c r="I334" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J334" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         <v>6</v>
       </c>
       <c r="I348" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J348" t="inlineStr">
         <is>
@@ -29234,11 +29234,11 @@
         <v>6</v>
       </c>
       <c r="I356" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K356" t="n">
@@ -29639,11 +29639,11 @@
         <v>6</v>
       </c>
       <c r="I361" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K361" t="n">
@@ -30368,7 +30368,7 @@
         <v>6</v>
       </c>
       <c r="I370" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J370" t="inlineStr">
         <is>
@@ -32728,11 +32728,11 @@
         <v>2</v>
       </c>
       <c r="L399" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N399" t="inlineStr">
@@ -35158,7 +35158,7 @@
         <v>2</v>
       </c>
       <c r="L429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M429" t="inlineStr">
         <is>
@@ -40666,11 +40666,11 @@
         <v>2</v>
       </c>
       <c r="L497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M497" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N497" t="inlineStr">

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -19923,7 +19923,7 @@
         <v>6</v>
       </c>
       <c r="I241" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J241" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>6</v>
       </c>
       <c r="I480" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J480" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -7206,22 +7206,22 @@
         <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K84" t="n">
         <v>2</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -12158,11 +12158,11 @@
         <v>2</v>
       </c>
       <c r="L145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -30692,7 +30692,7 @@
         <v>6</v>
       </c>
       <c r="I374" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J374" t="inlineStr">
         <is>

--- a/data/results/lsc_vacancies_2022.xlsx
+++ b/data/results/lsc_vacancies_2022.xlsx
@@ -18962,11 +18962,11 @@
         <v>2</v>
       </c>
       <c r="L229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -19275,11 +19275,11 @@
         <v>6</v>
       </c>
       <c r="I233" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K233" t="n">
@@ -40412,7 +40412,7 @@
         <v>6</v>
       </c>
       <c r="I494" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J494" t="inlineStr">
         <is>
